--- a/what/kecelakaan/df_result_lda_evaluated.xlsx
+++ b/what/kecelakaan/df_result_lda_evaluated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PetaKabar\what\kecelakaan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A0BEA6-E41B-4A17-BBAB-5CCECE92D3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A3BDF0-001F-47C0-BB43-EABDA50AFEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>kejadian, kecelakaan, tol, lokasi, orang, evakuasi, korban, meninggal, mengalami, luka, mengaku, langsung, informasi, dihubungi, jatuh, menimpa, mengevakuasi, aksi, nyawa, selang, menangis, api, io, celaka, sial, melompat</t>
   </si>
   <si>
-    <t>['jakarta', 'nggak', 'korban', 'luka', 'jatuh', 'mengalami_luka', 'keluarga', 'jalan', 'kondisi', 'kecelakaan', 'meninggal_dunia', 'langsung', 'berinisial', 'kejadian', 'rumah', 'anaknya', 'warga', 'mengaku', 'pria']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Mutohar (47), orang tua korban kecelakaan maut di _flyover_ Jembatan Goyang,_x000D_
@@ -142,9 +139,6 @@
   </si>
   <si>
     <t>kecelakaan, akibat, orang, luka, penyiksaan, kelaparan, lahir, diracun, dianiaya, meme, penganiayaan, tembak, lapar, celaka</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'nggak', 'luka', 'jalan', 'akibat', 'kondisi', 'kecelakaan', 'keselamatan', 'kesehatan', 'bernama', 'rumah', 'air']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -189,9 +183,6 @@
     <t>salah, kejadian, peristiwa, alam, rs, pengemudi, mobil, luka, kecelakaan, mengalami, dikemudikan, terperosok, ditumpangi, tergelincir, nyeri, tumpangi, unjuk, sedalam, lecet, kakinya, celaka</t>
   </si>
   <si>
-    <t>['pengemudi', 'luka', 'polisi', 'mengalami_luka', 'jalan', 'kecelakaan', 'arah', 'mengalami', 'kejadian', 'mobil', 'penumpang']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Mobil yang ditumpangi rombongan bule asal Rusia terjun ke jurang sedalam 25_x000D_
@@ -236,9 +227,6 @@
     <t>salah, amankan, langsung, peristiwa, aksi, alam, api, penyelidikan, mengaku, rs, masyarakat, pemeriksaan, mobil, rumah, dirusak, perusakan, rusak, dieksekusi, penangkapan, ditangkap, diamankan, aksinya, eksekusi, terlindas, penggerebekan, penggelapan, kesal, tewas, meninggal, vonis, ditahan, meme, hukuman, misil, io, sial</t>
   </si>
   <si>
-    <t>['penyidik', 'proyek', 'polisi', 'jawa', 'langsung', 'pelaku', 'bandung', 'peristiwa', 'memiliki', 'rumah', 'mobil', 'tewas']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Beragam peristiwa terjadi di Jawa Barat (Jabar) hari ini, Kamis (19/1/2023)._x000D_
@@ -385,9 +373,6 @@
     <t>kecelakaan, kendaraan, orang, korban, meninggal, motor, pengemudi, mengalami, luka, mengendarai, meme, celaka</t>
   </si>
   <si>
-    <t>['sekolah', 'pengemudi', 'korban', 'luka', 'polisi', 'mengalami_luka', 'lintas', 'kecelakaan', 'meninggal_dunia', 'petugas', 'terkait', 'anaknya', 'pengendara', 'warga', 'motor']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Kasus kecelakaan lalu lintas di Kota Tangerang pada 2022 didominasi oleh_x000D_
 kendaraan roda dua._x000D_
 _x000D_
@@ -437,9 +422,6 @@
   </si>
   <si>
     <t>kejadian, kecelakaan, akibat, lokasi, orang, korban, meninggal, laju, melaju, mengaku, menabrak, kejadiannya, benturan, peristiwa, musibah, petaka, mobilnya, pingsan, kesal, terparkir, menyeruduk, siuman, mobil, nyala, menangis, menyala, kesakitan, api, celaka</t>
-  </si>
-  <si>
-    <t>['korban', 'akibat', 'bus', 'kecelakaan', 'kegiatan', 'meninggal_dunia', 'bandung', 'sopir', 'peristiwa', 'menabrak', 'meninggal', 'mobil']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -527,9 +509,6 @@
     <t>melarikan, rs, rumah, ditangkap, bahaya, mengelabui, tenggelam, rezeki, kapal, kejar, lelah</t>
   </si>
   <si>
-    <t>['laut', 'tenggelam', 'kegiatan', 'petugas', 'uang', 'indonesia', 'titik', 'memiliki', 'kapal', 'terkait', 'rumah', 'pria']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 _Tulisan ketiga dari lima tulisan__x000D_
@@ -596,9 +575,6 @@
     <t>kejadian, kecelakaan, berlawanan, akibat, orang, meninggal, terlibat, motor, mengalami, luka, laju, melibatkan, dikendarai, melaju, pungkasnya, polisi, sepeda, benturan, diamankan, aksi, kabur, tewas, mengendarai, kendarai, celaka</t>
   </si>
   <si>
-    <t>['sepeda_motor', 'luka', 'mengalami_luka', 'jalan', 'kecelakaan', 'meninggal_dunia', 'insiden', 'bernama', 'kejadian', 'warga']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Dua pemotor terlibat kecelakaan maut saat dini hari di Kabupaten Mamuju,_x000D_
@@ -660,9 +636,6 @@
     <t>keterangannya, salah, keterangan, alam, api, penyelidikan, rs, pemeriksaan, menabrak, kantor, kecelakaan, investigasi, insiden, pesawat, rusak, mengalami, diperbaiki, diterbangkan, meme, unjuk, io, celaka</t>
   </si>
   <si>
-    <t>['jakarta', 'pesawat', 'kondisi', 'kecelakaan', 'insiden', 'keselamatan', 'kesehatan', 'memiliki', 'menabrak', 'terkait', 'penumpang', 'air']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Komite Nasional Keselamatan Transportasi (KNKT) melakukan investigasi insiden_x000D_
@@ -745,9 +718,6 @@
     <t>tol, orang, korban, meninggal, motor, keterangan, langsung, polisi, sepeda, jatuh, terjatuh, tersengat, tewas, nyawa, sial</t>
   </si>
   <si>
-    <t>['korban', 'polisi', 'kondisi', 'jawa', 'tewas', 'langsung', 'peristiwa', 'berinisial', 'remaja', 'rumah', 'motor']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Seorang remaja berinisial RBP (15) tewas di tempat cuci motor di Sukakarya,_x000D_
@@ -801,9 +771,6 @@
   </si>
   <si>
     <t>keluarga, korban, kejadian, langsung, alam, pengendara, motor, mengaku, rs, pengemudi, pemeriksaan, menabrak, mobil, wartawan, maut, kecelakaan, gesekan, kendaraannya, dikendarai, ditumpangi, mobilnya, tuduhan, terparkir, pembunuhan, sepeda, ditumpanginya, menewaskan, mengendarai, ubli, melindas, tumpangi, kendarai, bertemu, celaka</t>
-  </si>
-  <si>
-    <t>['sepeda_motor', 'jakarta', 'penyidik', 'pengemudi', 'korban', 'polisi', 'keluarga', 'tersangka', 'kecelakaan', 'jawa', 'tewas', 'langsung', 'polda_metro', 'jaya', 'sopir', 'titik', 'kendaraan', 'hukum', 'menabrak', 'terkait', 'kejadian', 'menyebut', 'mengaku', 'melintas', 'mobil', 'penumpang', 'motor']</t>
   </si>
   <si>
     <t xml:space="preserve">\- Kasus kecelakaan maut yang menewaskan mahasiswi di Cianjur, Selvi Amalia_x000D_
@@ -927,9 +894,6 @@
     <t>kejadian, kecelakaan, kendaraan, pengendara, berlawanan, korban, meninggal, motor, pengemudi, laju, dikemudikan, melaju, menabrak, sepeda, kejadiannya, peristiwa, hancur, terlempar, tewas, menewaskan, meme, api, io, celaka</t>
   </si>
   <si>
-    <t>['surabaya', 'sepeda_motor', 'korban', 'truk', 'jalan', 'kecelakaan', 'tewas', 'arah', 'peristiwa', 'jalur', 'bernama', 'kanan', 'menabrak', 'kejadian', 'dikemudikan', 'warga', 'melintas', 'motor']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Truk Fuso ugal-ugalan menabrak motor di Jalan Raya Cangkir, Driyorejo Gresik._x000D_
@@ -985,9 +949,6 @@
     <t>kecelakaan, tunggal, akibat, orang, korban, pengemudi, mengalami, laju, dikendarai, keterangan, dikemudikan, melaju, menabrak, bernomor, polisi, rusak, terbalik, bergegas, terguling, mobil, kendarai, celaka</t>
   </si>
   <si>
-    <t>['jakarta', 'korban', 'jalan', 'akibat', 'kecelakaan', 'petugas', 'kepolisian', 'kendaraan', 'kanan', 'menabrak', 'dikemudikan', 'mobil', 'melaju_arah', 'polisi', 'bus']</t>
-  </si>
-  <si>
     <t xml:space="preserve">Petugas kepolisian membersihkan oli yang berceceran di Jalan Letjen S Parman,_x000D_
 Tanjung Duren Selatan, Grogol Petamburan, Jakarta Barat, untuk mencegah_x000D_
 terjadinya kecelakaan lalu lintas, Selasa (6/12/2022)._x000D_
@@ -1037,9 +998,6 @@
   </si>
   <si>
     <t>tertabrak, salah, diserahkan, api, motor, rs, masyarakat, viral, kecamatan, membenarkan, kantor, insiden, remuk, celaka, sial</t>
-  </si>
-  <si>
-    <t>['lintas', 'kecelakaan', 'insiden', 'pemerintah', 'memiliki', 'terkait', 'warga', 'proses', 'tertabrak', 'motor']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -1093,9 +1051,6 @@
     <t>truk, alam, menabrak, wartawan, kecelakaan, kemacetan, akibat, mengalami, mengevakuasi, macet, celaka</t>
   </si>
   <si>
-    <t>['kemacetan', 'truk', 'jalan', 'akibat', 'kecelakaan', 'petugas', 'arah', 'jalur', 'menabrak', 'jakarta']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Kecelakaan truk terjadi di Jalan Gatot Subroto, tepatnya di samping _flyover__x000D_
@@ -1128,9 +1083,6 @@
   </si>
   <si>
     <t>kecelakaan, penanganan, kendaraan, akibat, korban, pemeriksaan, mengalami, luka, informasi, polisi, peristiwa, terkena, aksi, tertembak, tembakan, meletus, api, tembak, menembak, mabuk, celaka</t>
-  </si>
-  <si>
-    <t>['korban', 'luka', 'mengalami_luka', 'kecelakaan', 'petugas', 'kepolisian', 'pelaku', 'peristiwa', 'kendaraan', 'bernama', 'polisi']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -1184,9 +1136,6 @@
   </si>
   <si>
     <t>truk, korban, kejadian, alam, rs, pengemudi, menabrak, setir, maut, luka, kecelakaan, tabrakan, rawan, mengalami, dikemudikan, menyalip, tewas, meninggal, tensi, celaka</t>
-  </si>
-  <si>
-    <t>['tkp', 'korban', 'luka', 'mengalami_luka', 'selamat', 'truk', 'kecelakaan', 'meninggal_dunia', 'tewas', 'insiden', 'kendaraan', 'menabrak', 'meninggal', 'kejadian', 'sopir_truk', 'penumpang']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -1257,9 +1206,6 @@
     <t>motor, rs, kecelakaan, insiden, sepeda, celaka</t>
   </si>
   <si>
-    <t>['sepeda_motor', 'kecelakaan', 'insiden', 'terkait', 'menyebut']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Gubernur Bali I Wayan Koster akan menetapkan seluruh gunung di Pulau Dewata_x000D_
@@ -1310,9 +1256,6 @@
     <t>truk, salah, korban, peristiwa, alam, api, rs, pengemudi, mobil, wartawan, luka, kecelakaan, akibat, mengevakuasi, kendala, dievakuasi, berserakan, penumpukan, macet, io, mengantuk, celaka</t>
   </si>
   <si>
-    <t>['jakarta', 'tkp', 'pengemudi', 'korban', 'luka', 'kemacetan', 'truk', 'jalan', 'kecelakaan', 'arah', 'peristiwa', 'kendaraan', 'terkait']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Dua unit truk yang terlibat kecelakaan di Tol Dalam Kota pagi tadi sudah_x000D_
@@ -1384,9 +1327,6 @@
     <t>tertabrak, kereta, salah, keluarga, korban, kejadian, peristiwa, keterangan, pengendara, api, motor, rs, perlintasan, rumah, palang, maut, kecelakaan, tabrakan, akibat, mengevakuasi, motornya, tewas, meninggal, sepeda, mengendarai, meme, io, celaka, ulah</t>
   </si>
   <si>
-    <t>['sepeda_motor', 'korban', 'api', 'keluarga', 'jalan', 'kecelakaan', 'arah', 'insiden', 'kereta', 'bernama', 'kejadian', 'rumah', 'anaknya', 'diduga', 'warga', 'tertabrak', 'melintas', 'motor', 'tewas']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Kecelakaan melibatkan Kereta Api (KA) terjadi di Rejoso, Kabupaten Pasuruan._x000D_
@@ -1476,9 +1416,6 @@
     <t>kejadian, kecelakaan, tunggal, akibat, korban, mengalami, luka, dikemudikan, mengaku, langsung, menabrak, polisi, tewas, pikap, terbalik, dimakamkan, mobil, tensi, dikemudikannya, celaka</t>
   </si>
   <si>
-    <t>['korban', 'luka', 'truk', 'jalan', 'akibat', 'kecelakaan', 'langsung', 'arah', 'menabrak', 'kejadian', 'mengaku', 'proses', 'melintas', 'tewas']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Kepala Desa Sukadamai, Kecamatan Manggelewa, Kabupaten Dompu, Mustanadi,_x000D_
 dilaporkan tewas dalam kecelakaan tunggal di tanjakan Moti Toi, Desa Tolo_x000D_
 Kalo, Kecamatan Kempo, Kabupaten Dompu, Nusa Tenggara Barat (NTB), Selasa_x000D_
@@ -1523,9 +1460,6 @@
     <t>korban, teridentifikasi, kejadian, keterangan, alam, motor, rs, pengemudi, menabrak, mobil, wartawan, maut, luka, bermotor, kecelakaan, jatuh, terjatuh, rusak, mengalami, membentur, mobilnya, kabur, meninggal, meme, celaka</t>
   </si>
   <si>
-    <t>['tkp', 'pengemudi', 'korban', 'luka', 'polisi', 'mengalami_luka', 'akibat', 'kecelakaan', 'kegiatan', 'meninggal_dunia', 'arah', 'pelaku', 'kendaraan', 'menabrak', 'meninggal', 'kejadian', 'mobil', 'melaju_arah', 'jalan']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Kecelakaan maut terjadi di Jalan Urip Sumoharjo, Gondokusuman, Kota Jogja,_x000D_
@@ -1595,9 +1529,6 @@
   </si>
   <si>
     <t>tertabrak, keluarga, korban, kejadian, aksi, alam, motor, rs, mobil, rumah, sakit, maut, luka, kecelakaan, jatuh, akibat, terjatuh, terserempet, mengalami, dikemudikan, terlindas, dikendarai, dikawal, tewas, meninggal, nyawa, dimakamkan, mengendarai, kendarai, io, celaka</t>
-  </si>
-  <si>
-    <t>['siti', 'surabaya', 'korban', 'luka', 'polisi', 'keluarga', 'jam', 'jalan', 'kecelakaan', 'jawa', 'lubang', 'kendaraan', 'kanan', 'jenazah', 'anaknya', 'dikemudikan', 'tertabrak', 'mobil', 'motor', 'melaju_arah', 'warga']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -1682,9 +1613,6 @@
     <t>kecelakaan, akibat, orang, meninggal, hasil, luka, mengaku, dialaminya, hancur, hancurnya, kesulitan, aksi, kutukan, mempermalukan, kutuk, stres, api, sedih, tantangan, ususnya, io, celaka, tidur, sial</t>
   </si>
   <si>
-    <t>['keluarga', 'akibat', 'kecelakaan', 'meninggal_dunia', 'pelaku', 'kesehatan', 'remaja', 'meninggal', 'mengaku', 'proses', 'pria']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Perawat konselor pasien ODHA di Layanan Pengobatan dan Perawatan (LPDP) ODHA_x000D_
@@ -1787,9 +1715,6 @@
     <t>truk, korban, kejadian, langsung, peristiwa, alam, rs, pengemudi, menabrak, rumah, membenarkan, maut, kecelakaan, insiden, akibat, rusak, menghantam, mengalami, dikemudikan, kerugian, terperosok, rugi, terbalik, lecet, celaka</t>
   </si>
   <si>
-    <t>['pengemudi', 'korban', 'truk', 'jalan', 'akibat', 'kondisi', 'kecelakaan', 'langsung', 'insiden', 'peristiwa', 'kesehatan', 'jalur', 'kanan', 'menabrak', 'mengalami', 'kejadian', 'rumah', 'dikemudikan', 'warga', 'melintas']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Sebuah truk tronton berpelat AG 9389 UT menghantam minibus yang melintas di_x000D_
@@ -1839,9 +1764,6 @@
     <t>truk, keterangannya, korban, peristiwa, akibatnya, keterangan, alam, rs, pengemudi, menabrak, kecelakaan, kemacetan, akibat, rusak, mengalami, dievakuasi, pembersihan, terguling, macet, celaka, sial</t>
   </si>
   <si>
-    <t>['nggak', 'pengemudi', 'korban', 'kemacetan', 'jam', 'truk', 'kecelakaan', 'petugas', 'peristiwa', 'kendaraan', 'kanan', 'menabrak', 'menyebut', 'diduga', 'melaju_arah']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Kecelakaan truk terguling kembali terjadi di Jalan Gatot Subroto, Jakarta_x000D_
@@ -1918,9 +1840,6 @@
     <t>kejadian, kecelakaan, akibat, evakuasi, korban, pengemudi, mengalami, laju, ruas, menabrak, insiden, dampak, dievakuasi, roboh, macet, unjuk, mengantuk, celaka</t>
   </si>
   <si>
-    <t>['jakarta', 'tkp', 'korban', 'truk', 'jalan', 'akibat', 'kecelakaan', 'arah', 'jaya', 'menabrak', 'sopir_truk', 'jalur']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Satu unit truk mengalami kecelakaan di Tol Tangerang arah Jakarta. Tak ada_x000D_
@@ -1956,9 +1875,6 @@
   </si>
   <si>
     <t>salah, amankan, korban, langsung, alam, motor, rs, rumah, sakit, luka, kecelakaan, mengalami, diamankan, terperosok, mengevakuasi, menderita, motornya, sepeda, berhadapan, berteriak, celaka, sial</t>
-  </si>
-  <si>
-    <t>['sepeda_motor', 'korban', 'luka', 'selamat', 'jalan', 'kondisi', 'kecelakaan', 'langsung', 'peristiwa', 'hukum', 'diduga', 'warga', 'melintas', 'motor']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -2012,9 +1928,6 @@
   </si>
   <si>
     <t>truk, korban, kejadian, alam, rs, pengemudi, menabrak, setir, maut, luka, kecelakaan, tabrakan, insiden, akibat, rawan, mengalami, dikemudikan, menyalip, tewas, meninggal, tensi, celaka</t>
-  </si>
-  <si>
-    <t>['tkp', 'korban', 'luka', 'mengalami_luka', 'kecelakaan', 'insiden', 'kendaraan', 'menabrak', 'penumpang', 'tewas']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -2078,9 +1991,6 @@
     <t>kejadian, kecelakaan, orang, evakuasi, korban, meninggal, mengalami, luka, insiden, rusak, mengevakuasi, dievakuasi, tewas, menewaskan, meme, menangis, celaka, sial</t>
   </si>
   <si>
-    <t>['korban', 'luka', 'mengalami_luka', 'truk', 'jalan', 'kecelakaan', 'meninggal_dunia', 'tewas', 'warga', 'pria']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Truk kontainer bernopol B-9482-FEH yang sedang parkir di kawasan Tambun_x000D_
@@ -2140,9 +2050,6 @@
     <t>truk, pemotor, terluka, peristiwa, alam, motor, rs, wartawan, luka, kecelakaan, tabrakan, akibat, mengalami, kendaraannya, dikendarai, memar, sepeda, kendarai, kakinya, celaka</t>
   </si>
   <si>
-    <t>['sepeda_motor', 'tkp', 'korban', 'luka', 'mengalami_luka', 'truk', 'kecelakaan', 'jawa', 'petugas', 'peristiwa', 'bogor', 'motor']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Kecelakaan lalu lintas antara truk dan sepeda motor terjadi di Cigudeg,_x000D_
@@ -2178,9 +2085,6 @@
   </si>
   <si>
     <t>truk, korban, kejadian, alam, rs, pengemudi, pemeriksaan, menabrak, maut, luka, kecelakaan, hancur, mengalami, dikemudikan, terperosok, pengereman, dievakuasi, tewas, meme, lisis, mengantuk, celaka</t>
-  </si>
-  <si>
-    <t>['tkp', 'korban', 'luka', 'polisi', 'mengalami_luka', 'truk', 'kecelakaan', 'arah', 'kendaraan', 'bernama', 'menabrak', 'mojokerto', 'kejadian', 'dikemudikan', 'sopir_truk', 'warga', 'sopir']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -2237,9 +2141,6 @@
   </si>
   <si>
     <t>korban, kejadian, peristiwa, aksi, keterangan, api, rs, kecelakaan, penyidikan, dibakar, pusing, io, celaka, ulah</t>
-  </si>
-  <si>
-    <t>['penyidik', 'tkp', 'korban', 'polisi', 'kondisi', 'tersangka', 'kecelakaan', 'pelaku', 'peristiwa', 'proses']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -2285,9 +2186,6 @@
     <t>kecelakaan, kendaraan, pengemudi, mengalami, luka, laju, melaju, menabrak, polisi, peristiwa, ditabrak, kerugian, diamankan, rugi, terbalik, mobil, io, celaka</t>
   </si>
   <si>
-    <t>['pengemudi', 'luka', 'polisi', 'mengalami_luka', 'jalan', 'kecelakaan', 'arah', 'kepolisian', 'peristiwa', 'kendaraan', 'menabrak', 'mengalami', 'rumah', 'mobil', 'penumpang']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Ambulans milik RSUD Dr Pirngadi Medan mengalami kecelakaan saat membawa pasien_x000D_
@@ -2336,9 +2234,6 @@
     <t>kecelakaan, kendaraan, akibat, tertabrak, korban, meninggal, hasil, keterangan, diduga, dikemudikan, menabrak, polisi, membenarkan, peristiwa, penyelidikan, pembongkaran, diamankan, tewas, mobil, parit, celaka, sial, tewasnya</t>
   </si>
   <si>
-    <t>['tkp', 'korban', 'akibat', 'kecelakaan', 'peristiwa', 'berinisial', 'kendaraan', 'menabrak', 'meninggal', 'dikemudikan', 'diduga', 'tertabrak', 'mobil', 'polisi']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Perempuan inisial S (53) tewas tertabrak mobil miliknya sendiri di Tambun_x000D_
@@ -2380,9 +2275,6 @@
     <t>kejadian, kecelakaan, lokasi, orang, meninggal, pengemudi, mengalami, luka, keterangan, dikemudikan, menabrak, insiden, rusak, diparkir, aksi, tewas, menyeruduk, celaka, sial</t>
   </si>
   <si>
-    <t>['korban', 'luka', 'mengalami_luka', 'truk', 'jalan', 'kecelakaan', 'meninggal_dunia', 'insiden', 'sopir', 'menabrak', 'dikemudikan', 'warga', 'tewas']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Truk kontainer yang sedang diparkir di Tambun Selatan, Kabupaten Bekasi, tiba-_x000D_
@@ -2433,9 +2325,6 @@
     <t>alam, rs, kecelakaan, dampak, macet, celaka</t>
   </si>
   <si>
-    <t>['jakarta', 'kecelakaan', 'arah', 'kendaraan']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Kecelakaan beruntun melibatkan dua kendaraan terjadi di Tol Bekasi Timur arah_x000D_
@@ -2470,9 +2359,6 @@
   </si>
   <si>
     <t>salah, keluarga, korban, peristiwa, keterangan, alam, kematian, api, mengaku, rs, pemeriksaan, akibat, kekejaman, tewas, kaget, kematiannya</t>
-  </si>
-  <si>
-    <t>['siti', 'korban', 'polisi', 'keluarga', 'selamat', 'tersangka', 'laut', 'jawa', 'kepolisian', 'mengaku', 'proses']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -2542,9 +2428,6 @@
   </si>
   <si>
     <t>truk, korban, kejadian, keterangan, alam, rs, pengemudi, menabrak, gabungan, mobil, akun, wartawan, membenarkan, kecelakaan, mengalami, dikemudikan, mengevakuasi, penyalahgunaan, nyala, io, celaka</t>
-  </si>
-  <si>
-    <t>['pengemudi', 'korban', 'truk', 'bus', 'kecelakaan', 'kendaraan', 'menabrak', 'kejadian', 'dikemudikan', 'warga', 'mobil']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -2606,9 +2489,6 @@
     <t>kecelakaan, kendaraan, korban, meninggal, motor, pengemudi, mengalami, luka, dikendarai, keterangan, pungkasnya, menabrak, polisi, sepeda, penyelidikan, diamankan, tewas, nyawa, nyala, menyala, api, menyalakan, kendarai, lecet, nyalakan, celaka, sial</t>
   </si>
   <si>
-    <t>['sepeda_motor', 'korban', 'luka', 'polisi', 'mengalami_luka', 'truk', 'jalan', 'kecelakaan', 'meninggal_dunia', 'tewas', 'petugas', 'kendaraan', 'menabrak', 'motor']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Pengendara sepeda motor asal Lingkungan Dasan Geres, Kelurahan Dasan Geres,_x000D_
@@ -2661,9 +2541,6 @@
     <t>tertabrak, kereta, korban, kejadian, langsung, aksi, keterangan, alam, api, rs, perlintasan, jurusan, rumah, sakit, luka, tabrakan, insiden, hancur, mengevakuasi, tewas</t>
   </si>
   <si>
-    <t>['jakarta', 'ditemukan', 'korban', 'luka', 'api', 'polisi', 'petugas', 'saksi', 'insiden', 'kereta', 'terkait', 'kejadian', 'proses', 'tertabrak', 'tewas']</t>
-  </si>
-  <si>
     <t xml:space="preserve">Seorang wanita tanpa identitas ditemukan tewas setelah tertabrak kereta api 81_x000D_
 Taksaka jurusan Yogyakarta-Jakarta di perlintasan Kampung Beras, Cikarang_x000D_
 Jati, Cikarang Barat, Minggu (22/1/2023) sore._x000D_
@@ -2700,9 +2577,6 @@
   </si>
   <si>
     <t>kejadian, tol, korban, pesawat, jatuh, jatuhnya, aksi, menghabisi, terbakar, nyawa, dianiaya, ubli, api, unjuk, membunuh, io, ulah</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'korban', 'pesawat', 'jatuh', 'selamat', 'pencarian', 'kejadian', 'helikopter', 'penumpang', 'pria']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -2773,9 +2647,6 @@
     <t>kejadian, kecelakaan, kendaraan, pengendara, lokasi, korban, terlibat, motor, mengalami, luka, laju, melaju, sepeda, rusak, penyelidikan, kendaraannya, terlindas, tewas, mobil, tergores, io, celaka</t>
   </si>
   <si>
-    <t>['sepeda_motor', 'korban', 'luka', 'mengalami_luka', 'jalan', 'kecelakaan', 'tewas', 'arah', 'pengendara', 'titik', 'bernama', 'jenazah', 'sopir_truk', 'warga', 'motor', 'melaju_arah', 'truk']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Warga Kabupaten Kendal bernama Rozikin tewas di lokasi setelah terlibat_x000D_
 kecelakaan dengan truk trailer di Jalan Siliwangi Depan Pasar Jerakah_x000D_
 Ngaliyan, Kota Semarang._x000D_
@@ -2822,9 +2693,6 @@
   </si>
   <si>
     <t>kecelakaan, kendaraan, tunggal, akibat, korban, pengemudi, mengalami, luka, laju, keterangan, dikemudikan, melaju, peristiwa, rusak, penyelidikan, diamankan, mobilnya, terbalik, bergegas, pembersihan, mobil, celaka, sial</t>
-  </si>
-  <si>
-    <t>['jakarta', 'pengemudi', 'korban', 'luka', 'polisi', 'lintas', 'jalan', 'akibat', 'kecelakaan', 'sopir', 'peristiwa', 'kendaraan', 'kanan', 'menyebut', 'mobil']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -2875,9 +2743,6 @@
     <t>kejadian, kecelakaan, tertabrak, lokasi, orang, evakuasi, korban, meninggal, mengalami, luka, dikendarai, peristiwa, dievakuasi, tewas, terparkir, mobil, kendarai, celaka</t>
   </si>
   <si>
-    <t>['korban', 'luka', 'bus', 'kecelakaan', 'meninggal_dunia', 'tewas', 'kendaraan', 'meninggal', 'mengalami', 'kejadian', 'tertabrak', 'mobil']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Enam pelajar rombongan MTsN 1 Kediri tertabrak hingga tergencet di antara_x000D_
@@ -2936,9 +2801,6 @@
   </si>
   <si>
     <t>korban, peristiwa, aksi, rs, penyisiran, tewas, celaka</t>
-  </si>
-  <si>
-    <t>['korban', 'kecelakaan', 'laut', 'arah', 'saksi', 'pencarian', 'peristiwa', 'titik']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -2984,9 +2846,6 @@
   </si>
   <si>
     <t>salah, kejadian, langsung, alam, api, mengaku, rs, pengemudi, masyarakat, jurusan, dilengkapi, pengguna, kecelakaan, rusak, bahaya, pemukulan, kebakaran, terbakar, menumpang, berkoordinasi, mengemudi, meme, tensi, mabuk, celaka, ulah</t>
-  </si>
-  <si>
-    <t>['pengemudi', 'kecelakaan', 'kegiatan', 'langsung', 'kepolisian', 'sopir', 'titik', 'hukum', 'bogor', 'kejadian', 'menyebut', 'mengaku', 'penumpang', 'polisi']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -3055,9 +2914,6 @@
     <t>kecelakaan, tunggal, akibat, korban, hasil, pemeriksaan, mengalami, luka, langsung, polisi, penyelidikan, diamankan, menganiaya, aksi, melukai, kesal, dibunuh, tewas, pembunuhan, api, unjuk, marah, celaka, geger</t>
   </si>
   <si>
-    <t>['ditemukan', 'korban', 'luka', 'polisi', 'ibunya', 'kecelakaan', 'langsung', 'saksi', 'pelaku', 'bernama', 'rumah']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Mayat wanita yang ditemukan dalam kamar rumah di Desa/Kecamatan Jekulo,_x000D_
@@ -3114,9 +2970,6 @@
   </si>
   <si>
     <t>salah, pemotor, korban, kejadian, langsung, aksi, alam, motor, mengaku, rs, pengemudi, viral, rumah, sakit, membenarkan, luka, kecelakaan, tabrakan, insiden, jatuh, terjatuh, menghantam, cedera, dioperasi, mengalami, ditabrak, kendaraannya, sepeda, lahir, remuk, io, terbangun, kakinya, celaka, sial</t>
-  </si>
-  <si>
-    <t>['sepeda_motor', 'nggak', 'korban', 'luka', 'aksi', 'jatuh', 'mengalami_luka', 'jam', 'jalan', 'kondisi', 'kecelakaan', 'kegiatan', 'jawa', 'langsung', 'insiden', 'indonesia', 'kendaraan', 'bernama', 'kanan', 'mengalami', 'kejadian', 'menyebut', 'warga', 'mengaku', 'motor', 'air']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -3221,9 +3074,6 @@
     <t>kejadian, korban, meninggal, pemeriksaan, luka, laju, keterangan, diduga, dikemudikan, melaju, menabrak, polisi, diamankan, ditumpangi, memarkir, memar, tewas, karam, mobil, tumpangi, memarkirkan, tensi, mengantuk</t>
   </si>
   <si>
-    <t>['siti', 'tkp', 'korban', 'luka', 'polisi', 'keluarga', 'lintas', 'truk', 'jalan', 'kondisi', 'tewas', 'arah', 'sopir', 'menabrak', 'kejadian', 'sopir_truk', 'diduga', 'warga', 'penumpang']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Polisi menjelaskan kronologi kejadian mobil Innova yang menabrak truk parkir_x000D_
@@ -3280,9 +3130,6 @@
     <t>keluarga, korban, keterangan, alam, api, mobil, luka, kecelakaan, mengalami, trauma, dievakuasi, tewas, meninggal, mengendarai, celaka</t>
   </si>
   <si>
-    <t>['korban', 'luka', 'keluarga', 'selamat', 'kondisi', 'kecelakaan', 'anaknya', 'mobil']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Mobil terjun ke sungai di Pangkep, Sulawesi Selatan (Sulsel) menyebabkan lima_x000D_
@@ -3331,9 +3178,6 @@
     <t>kejadian, kendaraan, lokasi, orang, evakuasi, korban, keterangan, polisi, sekira, peristiwa, dievakuasi, tewas, karam, mobil, sedalam, tensi</t>
   </si>
   <si>
-    <t>['korban', 'lintas', 'selamat', 'jalan', 'peristiwa', 'kejadian', 'mobil', 'luka', 'tewas']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Sebuah mobil terjun ke jurang sedalam 100 meter di Jalan Lintas Dairi-_x000D_
 Pakpak Bharat, persisnya di Kecamatan Sukaramai, Kabupaten Pakpak Bharat,_x000D_
 Sumatera Utara, Senin (28/11/2022)._x000D_
@@ -3366,9 +3210,6 @@
   </si>
   <si>
     <t>salah, amankan, korban, kejadian, alam, mengambil, penyelidikan, mengaku, rs, mobil, rumah, sakit, mengamankan, kecelakaan, penangkapan, diamankan, diperbaiki, mobilnya, berkenalan, penggelapan, penipuan, kabur, io, celaka, sial</t>
-  </si>
-  <si>
-    <t>['korban', 'tersangka', 'kecelakaan', 'jawa', 'pelaku', 'kendaraan', 'kejadian', 'warga', 'mobil', 'pria', 'kerja']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -3442,9 +3283,6 @@
     <t>kecelakaan, pengendara, tertabrak, orang, mengalami, mengaku, langsung, menabrak, jatuh, peristiwa, panik, kesialan, dikubur, mengendarai, mobil, api, mengubur, celaka, ulah, sial</t>
   </si>
   <si>
-    <t>['nggak', 'jatuh', 'kecelakaan', 'langsung', 'pengendara', 'peristiwa', 'menabrak', 'warga', 'mengaku', 'tertabrak', 'mobil']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Menabrak kucing adalah salah satu momok bagi pengendara di jalanan. Sebab_x000D_
@@ -3519,9 +3357,6 @@
     <t>akibat, lokasi, orang, keterangan, pungkasnya, menabrak, pengecekan, tabrakan, insiden, rusak, diinterogasi, penyelidikan, diamankan, interogasi, kapal, api</t>
   </si>
   <si>
-    <t>['petugas', 'peristiwa', 'keselamatan', 'kapal', 'menabrak', 'melintas']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Kapal tongkang bermuatan batu bara menabrak Jembatan Mahakam, Kota Samarinda,_x000D_
@@ -3579,9 +3414,6 @@
   </si>
   <si>
     <t>keluarga, korban, kejadian, langsung, alam, api, mengambil, rs, rumah, keluarganya, jatuh, terjatuh, dievakuasi, tenggelam, tewas, mengigit, kapal, menggigit</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'korban', 'jatuh', 'keluarga', 'kondisi', 'tenggelam', 'jawa', 'langsung', 'pencarian', 'perusahaan', 'kapal', 'kejadian', 'diduga', 'tewas']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -3673,9 +3505,6 @@
     <t>truk, korban, kejadian, peristiwa, alam, api, rs, mobil, luka, kecelakaan, runtuhan, runtuh, gempa, tertimbun, kebakaran, pemadaman, tenggelam, terguling, longsor, io, celaka, ulah</t>
   </si>
   <si>
-    <t>['surabaya', 'korban', 'luka', 'jam', 'kecelakaan', 'tenggelam', 'petugas', 'uang', 'lubang', 'peristiwa', 'indonesia', 'kendaraan', 'memiliki', 'kejadian', 'warga', 'mobil']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Kota Surabaya menjadi satu-satunya daerah di Indonesia yang memiliki Mobil_x000D_
@@ -3779,9 +3608,6 @@
     <t>kejadian, pengendara, akibat, lokasi, orang, korban, meninggal, motor, pengemudi, mengalami, luka, dikendarai, keterangan, penumpangnya, menabrak, sepeda, jatuh, ditabrak, diamankan, tewas, mobil, kendarai</t>
   </si>
   <si>
-    <t>['sepeda_motor', 'pengemudi', 'korban', 'luka', 'jatuh', 'mengalami_luka', 'lintas', 'meninggal_dunia', 'petugas', 'bernama', 'menabrak', 'mengalami', 'kejadian', 'mobil', 'penumpang', 'motor', 'tewas']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Sepasang pelajar tewas akibat ditabrak mobil di atas _fly over_ di Jalan_x000D_
 Soekarno Hatta, Kecamatan Payung Sekaki, Kota Pekanbaru, Riau, Kamis_x000D_
 (1/12/2022), sekitar pukul 21.00 WIB._x000D_
@@ -3836,9 +3662,6 @@
     <t>korban, aksi, pengelola, alam, api, mengaku, rs, kecelakaan, menimpa, mengalami, bahaya, dihantam, cidera, meme, io, celaka</t>
   </si>
   <si>
-    <t>['korban', 'wisata', 'kecelakaan', 'pemerintah', 'kerja', 'mengalami']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Dinas Pariwisata (Dispar) Klungkung melarang wisatawan berenang di tiga pantai_x000D_
@@ -3898,9 +3721,6 @@
   </si>
   <si>
     <t>korban, kejadian, alam, api, rs, menabrak, mobil, sakit, kecelakaan, rusak, mengalami, kendaraannya, dikendarainya, dikendarai, pingsan, serangan, tewas, meninggal, mengemudi, kendarai, mengemudikan, celaka</t>
-  </si>
-  <si>
-    <t>['korban', 'lintas', 'jam', 'kondisi', 'bus', 'kecelakaan', 'meninggal_dunia', 'jaya', 'sopir', 'kendaraan', 'menabrak', 'meninggal', 'kejadian', 'diduga', 'melintas', 'mobil', 'tewas']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -3965,9 +3785,6 @@
     <t>keterangan, alam, pengendara, api, motor, rs, mengimbau, mobil, bermotor, kecelakaan, mengalami, sepeda, rental, celaka</t>
   </si>
   <si>
-    <t>['sepeda_motor', 'lintas', 'kecelakaan', 'pengendara', 'kendaraan', 'memiliki', 'kerja', 'warga', 'mobil', 'motor']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Polda Bali mencatat ada enam kasus Warga Negara Asing (WNA) atau bule yang_x000D_
@@ -4025,9 +3842,6 @@
   </si>
   <si>
     <t>kecelakaan, akibat, 2018, orang, korban, meninggal, langsung, pesawat, jatuh, dampak, penggelapan, didakwa, dakwaan, meme, unjuk, io, celaka</t>
-  </si>
-  <si>
-    <t>['jakarta', 'korban', 'pesawat', 'jatuh', 'kecelakaan', 'meninggal_dunia', 'langsung', 'indonesia', 'kejadian', 'air']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -4095,9 +3909,6 @@
     <t>korban, kejadian, pengendara, rs, mobil, pengguna, luka, kecelakaan, kemacetan, jatuh, akibat, rawan, dikemudikan, tergelincir, mobilnya, mogok, terguling, macet, celaka</t>
   </si>
   <si>
-    <t>['pengemudi', 'korban', 'luka', 'kemacetan', 'jatuh', 'lintas', 'selamat', 'jalan', 'kecelakaan', 'arah', 'pengendara', 'bandung', 'sopir', 'kendaraan', 'kanan', 'kejadian', 'diduga', 'warga', 'mobil', 'melaju_arah']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Kecelakaan lalu lintas terjadi di kawasan Gentong, Kecamatan Kadipaten_x000D_
@@ -4148,9 +3959,6 @@
     <t>tertabrak, kereta, keluarga, korban, kejadian, peristiwa, pengendara, api, motor, rs, perlintasan, palang, tabrakan, akibat, mengevakuasi, dikendarai, tewas, meninggal, sepeda, meme, kendarai, celaka</t>
   </si>
   <si>
-    <t>['sepeda_motor', 'korban', 'api', 'keluarga', 'kecelakaan', 'arah', 'pengendara', 'kereta', 'kejadian', 'diduga', 'tertabrak', 'motor', 'tewas', 'warga']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Kecelakaan melibatkan Kereta Api (KA) terjadi di Rejoso, Kabupaten Pasuruan._x000D_
@@ -4205,9 +4013,6 @@
   </si>
   <si>
     <t>kereta, salah, alam, api, rs, perlintasan, mengimbau, masyarakat, palang, kecelakaan, rawan, bahaya, pemasangan, meninggal, nyawa, tensi, ususnya, celaka, sial</t>
-  </si>
-  <si>
-    <t>['api', 'lintas', 'kecelakaan', 'meninggal_dunia', 'jawa', 'keselamatan', 'kereta', 'memiliki', 'melintas']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -4291,9 +4096,6 @@
     <t>kejadian, kecelakaan, lokasi, orang, korban, meninggal, luka, kereta, insiden, penyelidikan, celaka</t>
   </si>
   <si>
-    <t>['jakarta', 'tkp', 'korban', 'luka', 'kecelakaan', 'kereta', 'kereta_teknis', 'terkait', 'kejadian', 'menyebut', 'akibat', 'tewas']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Polri menyebut ada dua korban meninggal dunia di insiden kecelakaan kereta_x000D_
@@ -4341,9 +4143,6 @@
     <t>keluarga, korban, keterangan, alam, api, rs, kecelakaan, dioperasi, mengalami, kesulitan, tertembak, menerjang, berkoordinasi, tembak, io, celaka</t>
   </si>
   <si>
-    <t>['korban', 'keluarga', 'kecelakaan', 'peristiwa', 'terkait', 'mengalami', 'warga']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Kahla Anisa, balita di Trenggalek yang tertembak senapan angin telah_x000D_
@@ -4393,9 +4192,6 @@
   </si>
   <si>
     <t>kecelakaan, lokasi, orang, evakuasi, korban, meninggal, motor, mengalami, luka, laju, keterangan, dikemudikan, melaju, sepeda, jatuh, terjatuh, diamankan, mengevakuasi, terlindas, motornya, terpeleset, aksi, mengerem, menyalip, tewas, menewaskan, mengendarai, celaka</t>
-  </si>
-  <si>
-    <t>['sepeda_motor', 'tkp', 'korban', 'luka', 'jatuh', 'mengalami_luka', 'truk', 'kecelakaan', 'meninggal_dunia', 'arah', 'sopir', 'kanan', 'warga', 'tewas']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -4452,9 +4248,6 @@
   </si>
   <si>
     <t>kejadian, kecelakaan, orang, korban, meninggal, mengalami, diduga, mengaku, menabrak, bernomor, polisi, rusak, aksi, tewas, dimakamkan, berteriak, tumpangi, api, sedalam, celaka</t>
-  </si>
-  <si>
-    <t>['korban', 'polisi', 'jalan', 'wisata', 'bus', 'kecelakaan', 'kegiatan', 'jawa', 'tewas', 'sopir', 'jalur', 'kendaraan', 'menabrak', 'meninggal', 'kejadian', 'diduga', 'warga', 'mengaku', 'melintas', 'penumpang']</t>
   </si>
   <si>
     <t xml:space="preserve">Bus pariwisata yang membawa rombongan dari Kota Semarang, Jawa Tengah,_x000D_
@@ -4543,9 +4336,6 @@
     <t>truk, korban, kejadian, keterangan, mobil, akun, kecelakaan, dampak, pikap, celaka</t>
   </si>
   <si>
-    <t>['korban', 'truk', 'jalan', 'kecelakaan', 'kejadian']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Kecelakaan antara truk dan mobil pikap terjadi di Banguntapan, Kabupaten_x000D_
@@ -4574,9 +4364,6 @@
   </si>
   <si>
     <t>kejadian, alam, rs, pengemudi, setir, mobil, luka, kecelakaan, jatuh, akibat, terjatuh, mengalami, terperosok, tewas, terbalik, sedalam, celaka</t>
-  </si>
-  <si>
-    <t>['tkp', 'pengemudi', 'luka', 'jatuh', 'mengalami_luka', 'jalan', 'kecelakaan', 'tewas', 'petugas', 'peristiwa', 'bernama', 'kejadian', 'warga', 'mobil', 'melaju_arah']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -4627,9 +4414,6 @@
     <t>kecelakaan, akibat, lokasi, orang, korban, mengaku, membenarkan, jatuh, terjatuh, terbentur, aksi, tewas, kram, tekanan, celaka</t>
   </si>
   <si>
-    <t>['korban', 'jatuh', 'jalan', 'akibat', 'kecelakaan', 'tewas', 'peristiwa', 'bernama', 'mengaku', 'proses']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Seorang wanita peserta tarik tambang IKA Universitas Hasanuddin (Unhas) tewas_x000D_
@@ -4679,9 +4463,6 @@
   </si>
   <si>
     <t>kejadian, kecelakaan, pengendara, orang, meninggal, mengalami, luka, langsung, polisi, penindakan, penurunan, celaka</t>
-  </si>
-  <si>
-    <t>['luka', 'polisi', 'lintas', 'kecelakaan', 'pengendara', 'mengalami', 'meninggal']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -4740,9 +4521,6 @@
     <t>kereta, salah, amankan, korban, langsung, aksi, alam, api, rs, perlintasan, mobil, mengamankan, kecelakaan, didatangi, dampaknya, dampak, bahaya, mengelabui, pencurian, terguling, menghalau, mencuri, nyala, menyala, celaka</t>
   </si>
   <si>
-    <t>['korban', 'api', 'polisi', 'jam', 'kecelakaan', 'petugas', 'langsung', 'peristiwa', 'kereta', 'menyebut', 'melintas', 'pria']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Cara komplotan pencuri rel kereta api di Asahan ini terbilang tidak biasa._x000D_
@@ -4808,9 +4586,6 @@
     <t>truk, korban, kejadian, langsung, alam, pengendara, api, motor, rs, menabrak, rumah, sakit, luka, kecelakaan, menghantam, ditabrak, dikendarai, menderita, memar, dahi, tewas, meninggal, meluncur, kendarai, lecet, celaka, sial</t>
   </si>
   <si>
-    <t>['korban', 'luka', 'jalan', 'kecelakaan', 'tewas', 'langsung', 'pengendara', 'berinisial', 'menabrak', 'kejadian', 'diduga', 'motor', 'melaju_arah', 'truk']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Siswi SMA berinisial RA (16) di Palangkaraya, Kalimantan Tengah (Kalteng)_x000D_
@@ -4864,9 +4639,6 @@
     <t>truk, amankan, korban, melarikan, kejadian, langsung, pengendara, motor, rs, pengemudi, pemeriksaan, mobil, mengamankan, tabrakan, mengevakuasi, terlindas, motornya, kabur, menyalip, tewas, bertabrakan, sepeda, melindas</t>
   </si>
   <si>
-    <t>['sepeda_motor', 'pengemudi', 'korban', 'lintas', 'truk', 'petugas', 'langsung', 'bandung', 'kendaraan', 'memiliki', 'kejadian', 'mobil', 'motor', 'melaju_arah', 'tewas']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Seorang pemuda, Ilham (26) tewas usai tabrakan dan terlindas truk pengangkut_x000D_
@@ -4917,9 +4689,6 @@
     <t>kejadian, kecelakaan, tertabrak, lokasi, korban, motor, hasil, pemeriksaan, keterangan, dikemudikan, polisi, dihubungi, benturan, jatuh, menimpa, penyelidikan, ditabrak, aksi, berbenturan, genangan, menewaskan, mobil, io, celaka, sial</t>
   </si>
   <si>
-    <t>['jakarta', 'korban', 'jatuh', 'kecelakaan', 'saksi', 'kepolisian', 'polda_metro', 'kejadian', 'latif', 'dikemudikan', 'proses', 'tertabrak', 'mahasiswa', 'mobil', 'esbw', 'motor', 'air', 'tkp', 'polisi']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Pihak kepolisian masih menyelidiki kasus mahasiswa Universitas Indonesia (UI),_x000D_
@@ -4976,9 +4745,6 @@
     <t>tertabrak, truk, korban, alam, api, motor, rs, menabrak, mobil, luka, kecelakaan, akibat, menimpa, ditabrak, wafat, tewas, menghilang, meninggal, nyawa, mengendarai, celaka</t>
   </si>
   <si>
-    <t>['jakarta', 'korban', 'luka', 'jam', 'truk', 'jalan', 'akibat', 'kondisi', 'tersangka', 'kecelakaan', 'meninggal_dunia', 'polda_metro', 'eko', 'jaya', 'hasya', 'menabrak', 'latif', 'tertabrak', 'mobil', 'motor', 'tewas', 'mahasiswa']</t>
-  </si>
-  <si>
     <t xml:space="preserve"> \- Wakil Ketua Umum Partai Gerindra, Fadli Zon, ikut menanggapi kasus_x000D_
 mahasiswa UI, Mohammad Hasya Athallah Saputra, yang tewas tertabrak mobil oleh_x000D_
 pensiunan polisi. Ia menilai harus ada keadilan dalam kasus ini._x000D_
@@ -5030,9 +4796,6 @@
   </si>
   <si>
     <t>tertabrak, kereta, salah, keluarga, korban, kejadian, langsung, peristiwa, alam, api, motor, rs, perlintasan, jurusan, rumah, palang, keluarganya, tabrakan, dievakuasi, tewas, sepeda, naiki, sial</t>
-  </si>
-  <si>
-    <t>['sepeda_motor', 'korban', 'api', 'keluarga', 'jawa', 'arah', 'peristiwa', 'kereta', 'kejadian', 'rumah', 'tertabrak', 'tewas', 'anaknya']</t>
   </si>
   <si>
     <t xml:space="preserve">\- Sebanyak lima orang yang merupakan satu keluarga tewas tertabrak kereta api_x000D_
@@ -5088,9 +4851,6 @@
     <t>langsung, alam, rs, menabrak, tabrakan, pesawat, mengalami, kepanikan, panik, berteriak, meme, unjuk, io, ulah</t>
   </si>
   <si>
-    <t>['polisi', 'pesawat', 'lintas', 'jam', 'kondisi', 'insiden', 'menabrak', 'penumpang', 'air']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Penumpang Lion Air JT 797 langsung panik begitu winglet sayap pesawat menabrak_x000D_
@@ -5152,9 +4912,6 @@
   </si>
   <si>
     <t>kecelakaan, tol, orang, meninggal, mengalami, mengaku, desa, tabrakan, pesawat, hancur, menyakiti, terkena, ditawan, menghancurkan, aksi, kematian, ketakutan, menghilang, kutukan, aneh, menyelamatkan, mencuri, kutuk, meme, orangan, menemukannya, api, bertemu, pertempuran, io, celaka, ulah, tidur</t>
-  </si>
-  <si>
-    <t>['sekolah', 'ditemukan', 'api', 'pesawat', 'ibunya', 'keluarga', 'jalan', 'kecelakaan', 'laut', 'bernama', 'rumah', 'mengaku', 'pria']</t>
   </si>
   <si>
     <t xml:space="preserve">Daftar Isi_x000D_
@@ -5343,9 +5100,6 @@
     <t>truk, terluka, keterangan, alam, api, mengambil, mengaku, rs, menabrak, luka, kecelakaan, insiden, rusak, mengalami, menyalip, lecet, celaka</t>
   </si>
   <si>
-    <t>['luka', 'kondisi', 'bus', 'kecelakaan', 'uang', 'insiden', 'sopir', 'menabrak', 'mengaku', 'penumpang', 'truk']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Sebuah bus yang mengangkut 27 orang menabrak truk _crane_ yang sedang parkir_x000D_
@@ -5400,9 +5154,6 @@
     <t>keluarga, korban, kejadian, alam, api, penyelidikan, rs, mobil, maut, luka, kecelakaan, dihukum, hilangnya, tewas, pikap, nyawa, vonis, menewaskan, memaafkan, sedalam, tensi, celaka</t>
   </si>
   <si>
-    <t>['korban', 'luka', 'polisi', 'keluarga', 'lintas', 'jalan', 'kondisi', 'tersangka', 'kecelakaan', 'jawa', 'sopir']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Epeng, sopir mobil pikap maut yang terjun ke jurang dan menewaskan 8 orang_x000D_
@@ -5463,9 +5214,6 @@
     <t>kecelakaan, tol, lokasi, orang, evakuasi, korban, puskesmas, langsung, celaka</t>
   </si>
   <si>
-    <t>['korban', 'bus', 'kecelakaan', 'jawa', 'jalur', 'menyebut', 'proses', 'penumpang']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Bus pariwisata masuk jurang Gunung Lawu, wilayah Sarangan, Kecamatan Plaosan,_x000D_
@@ -5507,9 +5255,6 @@
   </si>
   <si>
     <t>kendaraan, orang, hasil, langsung, informasi, terbalik, kapal, unjuk, sial</t>
-  </si>
-  <si>
-    <t>['truk', 'bus', 'langsung', 'kendaraan', 'kapal', 'latif', 'menyebut', 'warga', 'polisi']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -5567,9 +5312,6 @@
     <t>kejadian, kecelakaan, tol, akibat, orang, evakuasi, korban, luka, keterangan, langsung, polisi, investigasi, insiden, peristiwa, mengevakuasi, celaka</t>
   </si>
   <si>
-    <t>['korban', 'luka', 'kecelakaan', 'jawa', 'langsung', 'kepolisian', 'peristiwa', 'kereta', 'indonesia', 'terkait', 'kejadian', 'menyebut', 'proses', 'bandung']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- PT Kereta Cepat Indonesia Cina (KCIC) menyebut ada empat orang pekerja_x000D_
 menjadi korban atas insiden kecelakaan maut di Padalarang, Kabupaten Bandung_x000D_
 Barat (KBB), Jawa Barat, Minggu (18/12/2022) kemarin._x000D_
@@ -5605,9 +5347,6 @@
   </si>
   <si>
     <t>kecelakaan, orang, korban, langsung, iptu, diberangkatkan, diawaki, dukacita, api, celaka</t>
-  </si>
-  <si>
-    <t>['jakarta', 'korban', 'keluarga', 'jam', 'kecelakaan', 'laut', 'jenazah', 'helikopter', 'rumah']</t>
   </si>
   <si>
     <t xml:space="preserve"> \- Dua Jenazah korban kecelakaan Helikopter P-1103 telah tiba di Jakarta_x000D_
@@ -5663,9 +5402,6 @@
     <t>kecelakaan, tol, orang, meninggal, mengalami, keterangan, pungkasnya, terbaru, risiko, aksi, kematian, sembuh, cemas, api, io, celaka, sial</t>
   </si>
   <si>
-    <t>['kecelakaan', 'meninggal_dunia', 'indonesia', 'memiliki', 'kerja']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 BPJS Ketenagakerjaan (BPJAMSOSTEK) bersama Persatuan Seniman Komedi Indonesia_x000D_
@@ -5743,9 +5479,6 @@
     <t>truk, korban, kejadian, alam, pengendara, motor, pengemudi, mengimbau, maut, luka, kecelakaan, benturan, mengalami, dikendarai, menyalip, tewas, meninggal, sepeda, mengendarai, kendarai, celaka, sial</t>
   </si>
   <si>
-    <t>['sepeda_motor', 'korban', 'luka', 'mengalami_luka', 'lintas', 'truk', 'jalan', 'kondisi', 'kecelakaan', 'meninggal_dunia', 'pengendara', 'kanan', 'kejadian', 'warga', 'melaju_arah', 'tewas', 'pria', 'motor']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Kecelakaan maut antara sepeda motor dengan truk terjadi di Jalan Raya_x000D_
@@ -5798,9 +5531,6 @@
   </si>
   <si>
     <t>kecelakaan, tol, akibat, pemeriksaan, mengalami, keterangan, mengaku, langsung, rusak, gugatan, celaka</t>
-  </si>
-  <si>
-    <t>['lintas', 'jalan', 'akibat', 'kecelakaan', 'langsung', 'pemerintah', 'hukum', 'warga']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -5868,9 +5598,6 @@
     <t>tertabrak, truk, korban, kejadian, aksi, alam, pengendara, motor, rs, menabrak, membenarkan, luka, kecelakaan, jatuh, rusak, mengalami, membentur, terperosok, dikendarai, ditumpangi, dievakuasi, tewas, meninggal, sepeda, tumpangi, kendarai, lecet, celaka, sial</t>
   </si>
   <si>
-    <t>['sepeda_motor', 'tkp', 'korban', 'luka', 'ibunya', 'mengalami_luka', 'jalan', 'kondisi', 'kecelakaan', 'meninggal_dunia', 'lubang', 'berinisial', 'kendaraan', 'menabrak', 'meninggal', 'kejadian', 'warga', 'tertabrak', 'motor', 'melaju_arah', 'jatuh', 'truk', 'tewas']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Dua anak meninggal dunia dalam kecelakaan di Sragen. Polisi menyebut_x000D_
@@ -5941,9 +5668,6 @@
     <t>kereta, truk, rs, perlintasan, menabrak, mobil, wartawan, palang, kecelakaan, dioperasi, dikemudikan, tersangkut, io, celaka</t>
   </si>
   <si>
-    <t>['truk', 'jalan', 'kecelakaan', 'lokomotif', 'kereta', 'jalur', 'kendaraan', 'menabrak', 'mojokerto', 'dikemudikan', 'warga', 'melintas', 'mobil', 'tertabrak']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 KA Sancaka dengan nomor lokomotif CC 2040301 menabrak truk trailer pengangkut_x000D_
@@ -5987,9 +5711,6 @@
   </si>
   <si>
     <t>kecelakaan, orang, evakuasi, luka, bahaya, kendala, dievakuasi, tewas, celaka</t>
-  </si>
-  <si>
-    <t>['luka', 'polisi', 'jalan', 'kondisi', 'bus', 'kecelakaan', 'tewas']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -6036,9 +5757,6 @@
     <t>kejadian, kecelakaan, lokasi, orang, evakuasi, korban, meninggal, luka, puskesmas, dievakuasi, tewas, celaka</t>
   </si>
   <si>
-    <t>['korban', 'luka', 'kecelakaan', 'meninggal_dunia', 'tewas', 'penumpang', 'bus']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Bus pariwisata Semeru masuk ke jurang Lawu, wilayah Sarangan, Kecamatan_x000D_
@@ -6074,9 +5792,6 @@
   </si>
   <si>
     <t>aksi, alam, rs, mengimbau, pemeriksaan, akun, pengguna, kecelakaan, bencana, meme, nyala, kapal, nyalakan, tensi, io, celaka</t>
-  </si>
-  <si>
-    <t>['surabaya', 'jam', 'kecelakaan', 'laut', 'kegiatan', 'jawa', 'pelaku', 'keselamatan', 'titik', 'kapal', 'terkait']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -6171,9 +5886,6 @@
     <t>kejadian, kecelakaan, kendaraan, tol, orang, korban, meninggal, pengemudi, mengalami, luka, laju, diduga, dikemudikan, melaju, langsung, menabrak, dihubungi, terperosok, ditumpangi, tewas, terguling, ditumpanginya, mobil, tumpangi, celaka</t>
   </si>
   <si>
-    <t>['korban', 'luka', 'mengalami_luka', 'selamat', 'jalan', 'kondisi', 'bus', 'kecelakaan', 'langsung', 'kendaraan', 'menabrak', 'diduga', 'mobil', 'penumpang']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Kecelakaan maut terjadi di Tol Cipali Km 100.900, wilayah Kalijati, Kabupaten_x000D_
@@ -6217,9 +5929,6 @@
     <t>korban, kejadian, pengelola, keterangan, alam, rs, menabrak, luka, kecelakaan, insiden, akibat, mengalami, ditumpangi, dihantam, dievakuasi, tenggelam, kebocoran, naiki, kapal, tumpangi, io, celaka</t>
   </si>
   <si>
-    <t>['korban', 'luka', 'akibat', 'kecelakaan', 'tenggelam', 'kapal', 'menabrak', 'kejadian', 'melintas', 'penumpang']</t>
-  </si>
-  <si>
     <t xml:space="preserve">Daftar Isi_x000D_
 _x000D_
    Kapal Mengalami Kebocoran _x000D_
@@ -6291,9 +6000,6 @@
   </si>
   <si>
     <t>salah, keterangan, alam, rs, dikurung, bahaya, dihadang, tenggelam, dipermainkan, meme, kapal, menemukannya, bertemu, perdebatan, kakinya, lehernya</t>
-  </si>
-  <si>
-    <t>['jalan', 'kondisi', 'laut', 'tenggelam', 'arah', 'terkait', 'menyebut', 'pria', 'air']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -6489,9 +6195,6 @@
     <t>tertabrak, korban, terluka, alam, pengendara, motor, menabrak, rumah, sakit, maut, luka, kecelakaan, akibat, cedera, mengalami, dikemudikan, dikendarai, menderita, pengereman, sepeda, cidera, kendarai, io, celaka</t>
   </si>
   <si>
-    <t>['surabaya', 'sepeda_motor', 'korban', 'luka', 'kecelakaan', 'arah', 'eko', 'kanan', 'menabrak', 'mojokerto', 'mengalami', 'diduga', 'warga', 'tertabrak', 'motor', 'melaju_arah', 'jalur']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Rem blong memicu kecelakaan 3 sepeda motor sekaligus di tikungan Gotekan,_x000D_
@@ -6543,9 +6246,6 @@
     <t>salah, keluarga, kejadian, langsung, aksi, keterangan, alam, api, penyelidikan, motor, mengaku, rs, viral, rumah, sakit, keluarganya, luka, kecelakaan, insiden, jatuh, dirampok, akibat, terjatuh, diserang, cedera, mengalami, dipukuli, dikendarai, interogasi, perampokan, terkapar, sepeda, mv, perampok, mengendarai, pendarahan, penganiayaan, kendarai, io, mabuk, celaka, tidur, sial</t>
   </si>
   <si>
-    <t>['tkp', 'luka', 'polisi', 'jatuh', 'mengalami_luka', 'keluarga', 'lintas', 'jalan', 'akibat', 'kondisi', 'kecelakaan', 'langsung', 'kepolisian', 'insiden', 'terkait', 'mengalami', 'kejadian', 'rumah', 'menyebut', 'mengaku', 'motor']</t>
-  </si>
-  <si>
     <t xml:space="preserve">Daftar Isi_x000D_
 _x000D_
    Polisi Tegaskan Bukan Perampokan _x000D_
@@ -6660,9 +6360,6 @@
   </si>
   <si>
     <t>salah, keluarga, korban, alam, rs, masyarakat, kecelakaan, jatuh, kerugian, dihukum, keresahan, penggelapan, rugi, didakwa, dakwaan, meme, ususnya, io, celaka, sial</t>
-  </si>
-  <si>
-    <t>['korban', 'kecelakaan']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -6740,9 +6437,6 @@
     <t>korban, langsung, aksi, alam, mengambil, rs, masyarakat, gabungan, rumah, kecelakaan, insiden, mengevakuasi, dievakuasi, tenggelam, tewas, meninggal, terbalik, celaka</t>
   </si>
   <si>
-    <t>['ditemukan', 'korban', 'kecelakaan', 'tenggelam', 'meninggal_dunia', 'petugas', 'saksi', 'bernama', 'rumah', 'anaknya', 'warga', 'tewas']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Seorang nelayan di Desa Senaning, Kecamatan Pemayung, Kabupaten Batanghari,_x000D_
@@ -6791,9 +6485,6 @@
     <t>salah, keluarga, korban, kejadian, alam, api, rs, keluarganya, luka, kejadiannya, akibat, cedera, dioperasi, mengalami, terkena, ditipu, panik, tenggelamnya, dihantam, bingung, dievakuasi, ketakutan, kesal, tenggelam, aneh, meninggal, menelan, terbalik, menyelamatkan, kaget, dinaiki, naiki, menewaskan, meme, kapal, tumpangi, dibom, bom, protes, io</t>
   </si>
   <si>
-    <t>['korban', 'luka', 'mengalami_luka', 'keluarga', 'tenggelam', 'jawa', 'peristiwa', 'bernama', 'kapal', 'mengalami', 'kejadian', 'penumpang', 'wisata']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Khouw Cyntia Josephine Kosasih merupakan salah satu korban tenggelamnya_x000D_
 Kapal Wisata KLM Tiana Liveboat di Perairan Batu Tiga Labuan Bajo, Kabupaten_x000D_
 Manggarai Barat, Nusa Tenggara Timur, pada Sabtu (21/1/2022)._x000D_
@@ -6940,9 +6631,6 @@
     <t>kejadian, lokasi, orang, evakuasi, korban, meninggal, keterangan, langsung, menabrak, polisi, tabrakan, rusak, aksi, dievakuasi, mobil, meme</t>
   </si>
   <si>
-    <t>['korban', 'meninggal_dunia', 'langsung', 'kesehatan', 'menabrak', 'jenazah', 'kejadian', 'warga', 'melintas', 'mobil', 'tewas']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Mobil boks dengan nomor polisi DH 8947 AM yang memuat alat kesehatan_x000D_
 menabrak seorang pasien berkursi roda di dalam area Rumah Sakit Umum Daerah_x000D_
 (RSUD) WZ Johannes Kupang, Rabu (30/11/2022)._x000D_
@@ -6987,9 +6675,6 @@
     <t>alam, rs, kecelakaan, kemacetan, insiden, akibat, mengalami, tersendat, ditumpangi, mogok, ditumpanginya, macet, tumpangi, imbas, celaka</t>
   </si>
   <si>
-    <t>['jakarta', 'kemacetan', 'jam', 'bus', 'kecelakaan', 'insiden', 'titik', 'kendaraan', 'bernama', 'penumpang']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Kemacetan kembali melanda sejumlah titik DKI Jakarta. Kemacetan ini terjadi_x000D_
@@ -7033,9 +6718,6 @@
   </si>
   <si>
     <t>tertabrak, truk, korban, kejadian, langsung, aksi, alam, rs, pengemudi, masyarakat, kecamatan, pengguna, kecelakaan, risiko, bahaya, fenomena, tewas, menumpang, penghadangan, tensi, celaka, sial</t>
-  </si>
-  <si>
-    <t>['pengemudi', 'korban', 'aksi', 'truk', 'kecelakaan', 'kegiatan', 'petugas', 'langsung', 'keselamatan', 'remaja', 'bogor', 'kejadian', 'anaknya', 'tertabrak', 'pria', 'polisi']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -7111,9 +6793,6 @@
     <t>salah, keluarga, korban, langsung, alam, mengaku, rs, rumah, wartawan, kejanggalan, pembongkaran, dibongkar, penyidikan, kendala, diberangkatkan, tenggelam, tewas, pembunuhan, meninggal, kapal, kejang</t>
   </si>
   <si>
-    <t>['siti', 'ditemukan', 'korban', 'polisi', 'keluarga', 'laut', 'tenggelam', 'tewas', 'kerja', 'meninggal', 'menyebut']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Polisi akan membongkar salah satu makam korban serial killer Wowon Cs, Siti_x000D_
@@ -7162,9 +6841,6 @@
   </si>
   <si>
     <t>keterangannya, salah, korban, langsung, aksi, keterangan, alam, mengambil, mengaku, rs, kecelakaan, bencana, insiden, dioperasi, ledakan, peledakan, dampak, serangan, peledak, ubli, pertempuran, tensi, bom, menembak, io, menembakkan, celaka, sial</t>
-  </si>
-  <si>
-    <t>['jakarta', 'aksi', 'lintas', 'kondisi', 'kecelakaan', 'laut', 'langsung', 'indonesia', 'memiliki', 'kapal', 'menyebut', 'mengaku', 'warga']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -7261,9 +6937,6 @@
     <t>evakuasi, korban, meninggal, hasil, langsung, informasi, polisi, iptu, pesawat, jatuh, jatuhnya, tersangkut, dievakuasi, menangkap</t>
   </si>
   <si>
-    <t>['jakarta', 'ditemukan', 'korban', 'pesawat', 'keluarga', 'kondisi', 'meninggal_dunia', 'langsung', 'pencarian', 'jenazah', 'terkait', 'meninggal', 'helikopter', 'menyebut', 'jatuh']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Tiga korban helikopter Polri jatuh di Bangka Belitung telah berhasil_x000D_
@@ -7355,9 +7028,6 @@
     <t>salah, korban, kejadian, alam, motor, rs, menabrak, luka, kecelakaan, benturan, mengalami, motornya, mengendarai, celaka</t>
   </si>
   <si>
-    <t>['korban', 'luka', 'mengalami_luka', 'jalan', 'kecelakaan', 'arah', 'jalur', 'menabrak', 'kejadian', 'diduga', 'melintas', 'melaju_arah']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Seorang bule Australia, Brady Nicholas Antony (40), menabrak pembatas jalan di_x000D_
@@ -7401,9 +7071,6 @@
   </si>
   <si>
     <t>kejadian, kecelakaan, pengendara, pemeriksaan, langsung, polisi, rawan, aksi, pencurian, api, terorisme, tensi, bom, celaka</t>
-  </si>
-  <si>
-    <t>['polisi', 'aksi', 'jalan', 'kecelakaan', 'jawa', 'pengendara', 'bandung', 'terkait', 'kejadian', 'warga', 'wisata']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -7467,9 +7134,6 @@
     <t>amankan, kejadian, akibatnya, aksi, alam, api, mengaku, rs, mobil, dilengkapi, wartawan, mengamankan, kecelakaan, akibat, diinterogasi, mengalami, dikemudikan, diamankan, interogasi, ditumpangi, ancaman, mencuri, hukuman, klaim, tumpangi, io, celaka</t>
   </si>
   <si>
-    <t>['ditemukan', 'penyidik', 'polisi', 'tersangka', 'kecelakaan', 'petugas', 'uang', 'bandung', 'kendaraan', 'remaja', 'kejadian', 'mengaku', 'pria', 'aksi']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Polisi menggagalkan peredaran obat terlarang yang siap dijual di Garut. 39_x000D_
@@ -7540,9 +7204,6 @@
     <t>keluarga, korban, kejadian, langsung, alam, pengendara, rs, menabrak, mobil, rumah, sakit, kecelakaan, insiden, akibat, mengalami, dikemudikan, bodas, sedalam, mengantuk, celaka</t>
   </si>
   <si>
-    <t>['korban', 'keluarga', 'akibat', 'kondisi', 'kecelakaan', 'langsung', 'sopir', 'jalur', 'menabrak', 'kejadian', 'warga', 'mobil']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Sebuah minibus masuk jurang di Jalan Syekh Abdul Muhyi Kelurahan Urug_x000D_
@@ -7589,9 +7250,6 @@
     <t>truk, salah, korban, kejadian, alam, rs, pengemudi, menabrak, rumah, luka, kecelakaan, memar, mengantuk, celaka</t>
   </si>
   <si>
-    <t>['korban', 'luka', 'truk', 'kecelakaan', 'arah', 'sopir', 'jalur', 'kendaraan', 'menabrak', 'kejadian', 'rumah']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Laka beruntun terjadi di Jalan Soekarno Hatta KM 19 Kelurahan Karang Joang,_x000D_
 Balikpapan Utara pada Minggu (8/1/2023) sekira pukul 05.30 Wita._x000D_
 _x000D_
@@ -7625,9 +7283,6 @@
   </si>
   <si>
     <t>kecelakaan, tol, lokasi, aksi, kematian, mengendarai, mobil, berteriak, api, unjuk, lapar, io, celaka, sial</t>
-  </si>
-  <si>
-    <t>['jakarta', 'keluarga', 'jalan', 'kecelakaan', 'jawa', 'kesehatan', 'indonesia', 'anaknya', 'mobil']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -7705,9 +7360,6 @@
     <t>kecelakaan, tol, akibat, lokasi, korban, jatuh, terkena, dampak, stres, macet, tensi, io, celaka</t>
   </si>
   <si>
-    <t>['jakarta', 'korban', 'jatuh', 'lintas', 'kecelakaan', 'pemerintah', 'jalur', 'memiliki', 'perusahaan', 'kerja', 'rumah']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Kepala Korlantas (Kakorlantas) Polri Irjen Firman Shantyabudi mengusulkan agar_x000D_
@@ -7762,9 +7414,6 @@
     <t>kejadian, kecelakaan, kendaraan, akibat, lokasi, evakuasi, korban, pengemudi, laju, keterangan, melaju, menabrak, pengangkut, polisi, tabrakan, benturan, jatuh, rusak, menghantam, kerugian, rugi, terguling, mobil, api, io, celaka</t>
   </si>
   <si>
-    <t>['korban', 'jatuh', 'truk', 'jalan', 'akibat', 'kecelakaan', 'jawa', 'arah', 'kendaraan', 'menabrak', 'kejadian', 'warga', 'melintas', 'mobil', 'diduga']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Kecelakaan lalu lintas terjadi di Jalan Ceper-Besole, tepatnya di Kecamatan_x000D_
@@ -7820,9 +7469,6 @@
   </si>
   <si>
     <t>kejadian, orang, evakuasi, korban, motor, mengalami, langsung, peristiwa, panik, mengevakuasi, kejut, terkejut, tenggelam, kebocoran, menyelamatkan, meme, kapal</t>
-  </si>
-  <si>
-    <t>['korban', 'laut', 'tenggelam', 'peristiwa', 'keselamatan', 'kapal', 'kejadian', 'penumpang', 'motor', 'air']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -7870,9 +7516,6 @@
     <t>kejadian, kecelakaan, lokasi, korban, meninggal, pemeriksaan, mengalami, luka, polisi, kereta, kejadiannya, insiden, tergeletak, terlempar, tewas, api, celaka, sial</t>
   </si>
   <si>
-    <t>['tkp', 'korban', 'luka', 'polisi', 'kecelakaan', 'lokomotif', 'kereta', 'jalur', 'kereta_teknis', 'kejadian', 'proyek', 'meninggal']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Kereta teknis proyek Kereta Cepat Jakarta Bandung (KCJB) mengalami kecelakaan_x000D_
@@ -7911,9 +7554,6 @@
     <t>kecelakaan, orang, evakuasi, korban, mengalami, luka, diduga, insiden, jatuh, ledakan, tersengat, tersangkut, menderita, dievakuasi, renovasi, tensi, celaka</t>
   </si>
   <si>
-    <t>['korban', 'luka', 'jatuh', 'mengalami_luka', 'kecelakaan', 'insiden', 'bernama', 'kanan', 'rumah', 'diduga', 'warga']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Seorang kuli bangunan di Tana Toraja, Sulawesi Selatan (Sulsel) bernama Benny_x000D_
@@ -7962,9 +7602,6 @@
   </si>
   <si>
     <t>kendaraan, motor, pemeriksaan, sepeda, mengendarai, mobil, mengemudi, nyala, menyala, api, mengantuk</t>
-  </si>
-  <si>
-    <t>['sepeda_motor', 'lintas', 'kondisi', 'jalur', 'kendaraan', 'mobil']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -8020,9 +7657,6 @@
   </si>
   <si>
     <t>keluarga, langsung, alam, api, mengaku, rs, rumah, kecelakaan, rawan, penyidikan, bingung, meninggalnya, tewas, meninggal, berhadapan, menewaskan, io, marah, celaka, sial</t>
-  </si>
-  <si>
-    <t>['keluarga', 'tersangka', 'kecelakaan', 'meninggal_dunia', 'tewas', 'pelaku', 'indonesia', 'hasya', 'bogor', 'meninggal', 'rumah', 'anaknya', 'mengaku', 'esbw', 'polisi', 'mahasiswa']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -8095,9 +7729,6 @@
     <t>keterangannya, korban, keterangan, alam, motor, menabrak, akibat, dievakuasi, tenggelam, kebocoran, karam, kapal</t>
   </si>
   <si>
-    <t>['jakarta', 'korban', 'kondisi', 'tenggelam', 'jawa', 'petugas', 'jaya', 'kesehatan', 'kapal', 'menabrak', 'kejadian', 'motor', 'akibat']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Kapal motor atau KM Berkah Bahari 4 tenggelam di perairan sebelah timur_x000D_
 Pulau Papatheo, Kepulauan Seribu, Jumat (30/12/2022). Cuaca ekstrem yang_x000D_
 terjadi di teluk Jakarta membuat kapal nelayan itu menabrak karang lalu_x000D_
@@ -8138,9 +7769,6 @@
     <t>kejadian, kecelakaan, kendaraan, tertabrak, lokasi, orang, korban, meninggal, pengemudi, laju, keterangan, diduga, bernomor, polisi, kereta, kendaraannya, ditumpangi, aksi, tewas, terbalik, menyelamatkan, mobil, tumpangi, api, celaka</t>
   </si>
   <si>
-    <t>['pengemudi', 'korban', 'api', 'keluarga', 'kecelakaan', 'meninggal_dunia', 'tewas', 'arah', 'sopir', 'peristiwa', 'kereta', 'kejadian', 'diduga', 'warga', 'tertabrak', 'melintas', 'mobil', 'penumpang']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Satu keluarga tewas setelah mobil yang ditumpangi tertabrak kereta api di_x000D_
 pelintasan Korong Simpang Tanjung, Nagari Sungai Buluah, Kecamatan Batang_x000D_
 Anai, Kabupaten Padang Pariaman, Sumatera Barat._x000D_
@@ -8198,9 +7826,6 @@
   </si>
   <si>
     <t>truk, salah, korban, kejadian, alam, mengaku, wartawan, kecelakaan, kejadiannya, menghadang, kesal, tewas, menewaskan, memaafkan, nyala, menyala, celaka</t>
-  </si>
-  <si>
-    <t>['korban', 'truk', 'kecelakaan', 'tewas', 'sopir', 'bogor', 'mengaku']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -8257,9 +7882,6 @@
     <t>korban, alam, pengendara, rs, luka, kecelakan, kecelakaan, mengalami, kerugian, penindakan, rugi, meninggal, celaka</t>
   </si>
   <si>
-    <t>['korban', 'luka', 'lintas', 'kecelakaan', 'meninggal_dunia', 'pengendara', 'titik', 'kejadian', 'jalan', 'meninggal']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Direktorat Lalu Lintas Polda Banten mencatat, sebanyak 661 orang meninggal_x000D_
 dunia dari 1.376 kasus kecelakaan lalu lintas sepanjang tahun 2022._x000D_
 _x000D_
@@ -8306,9 +7928,6 @@
     <t>kejadian, kecelakaan, tol, lokasi, orang, korban, meninggal, keterangan, jatuh, peristiwa, menimpa, berkoordinasi, api, io, celaka</t>
   </si>
   <si>
-    <t>['jakarta', 'korban', 'jatuh', 'akibat', 'kecelakaan', 'meninggal_dunia', 'peristiwa', 'terkait']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Kepala Dinas Perhubungan (Dishub) DKI Syafrin Liputo menyampaikan pihaknya_x000D_
@@ -8351,13 +7970,394 @@
 [Gambas:Video 20detik]_x000D_
 _x000D_
  </t>
+  </si>
+  <si>
+    <t>['mengaku', 'meninggal', 'mengalami_luka', 'kecelakaan', 'keluarga', 'nggak', 'jakarta', 'kejadian', 'luka', 'korban', 'jalan', 'warga', 'rumah', 'meninggal_dunia', 'langsung', 'kondisi', 'anaknya']</t>
+  </si>
+  <si>
+    <t>['keselamatan', 'kecelakaan', 'ditemukan', 'bernama', 'nggak', 'luka', 'kesehatan', 'rumah', 'jalan', 'kondisi']</t>
+  </si>
+  <si>
+    <t>['mobil', 'peristiwa', 'penumpang', 'polisi', 'kecelakaan', 'mengalami_luka', 'rombongan', 'pengemudi', 'luka', 'kejadian', 'arah', 'jalan']</t>
+  </si>
+  <si>
+    <t>['mobil', 'peristiwa', 'polisi', 'terkait', 'memiliki', 'tewas', 'rumah', 'langsung', 'pelaku', 'purwakarta', 'aksi']</t>
+  </si>
+  <si>
+    <t>['keselamatan', 'polisi', 'mengalami_luka', 'kendaraan', 'terkait', 'pengemudi', 'luka', 'motor', 'korban', 'lintas', 'warga', 'meninggal_dunia', 'kecelakaan', 'anaknya']</t>
+  </si>
+  <si>
+    <t>['mobil', 'meninggal', 'peristiwa', 'rombongan', 'menabrak', 'sopir', 'kejadian', 'korban', 'kegiatan', 'warga', 'meninggal_dunia', 'kecelakaan', 'bus', 'rumah_sakit']</t>
+  </si>
+  <si>
+    <t>['titik', 'penumpang', 'uang', 'terkait', 'memiliki', 'kegiatan', 'indonesia', 'kapal', 'rumah', 'tenggelam']</t>
+  </si>
+  <si>
+    <t>['mengalami_luka', 'kecelakaan', 'bernama', 'luka', 'kejadian', 'arah', 'jalan', 'tewas', 'warga', 'meninggal_dunia', 'motor', 'sepeda_motor', 'rumah_sakit']</t>
+  </si>
+  <si>
+    <t>['keselamatan', 'penumpang', 'menabrak', 'terkait', 'pesawat', 'nomor', 'memiliki', 'jakarta', 'kesehatan', 'kecelakaan', 'kondisi']</t>
+  </si>
+  <si>
+    <t>['polisi', 'peristiwa', 'keluarga', 'motor', 'korban', 'tewas', 'rumah', 'langsung', 'kondisi', 'remaja']</t>
+  </si>
+  <si>
+    <t>['titik', 'mengaku', 'polisi', 'sopir', 'tewas', 'kecelakaan', 'mobil', 'polda_metro', 'nomor', 'kejadian', 'korban', 'motor', 'rombongan', 'penumpang', 'pengemudi', 'keluarga', 'jakarta', 'langsung', 'cianjur', 'kendaraan', 'menabrak', 'bernama', 'terkait', 'tersangka', 'menyebut']</t>
+  </si>
+  <si>
+    <t>['truk', 'kendaraan', 'surabaya', 'peristiwa', 'menabrak', 'kecelakaan', 'bernama', 'pengemudi', 'kejadian', 'arah', 'korban', 'jalan', 'tewas', 'warga', 'motor', 'sepeda_motor', 'jalur']</t>
+  </si>
+  <si>
+    <t>['mobil', 'kendaraan', 'menabrak', 'polisi', 'kecelakaan', 'pengemudi', 'jakarta', 'korban', 'jalan', 'bus']</t>
+  </si>
+  <si>
+    <t>['polisi', 'kecelakaan', 'terkait', 'memiliki', 'kegiatan', 'lintas', 'warga', 'motor', 'tertabrak']</t>
+  </si>
+  <si>
+    <t>['truk', 'menabrak', 'kecelakaan', 'jakarta', 'tol', 'arah', 'kemacetan', 'jalan', 'jalur']</t>
+  </si>
+  <si>
+    <t>['mengalami_luka', 'peristiwa', 'kendaraan', 'polisi', 'bernama', 'luka', 'korban', 'kecelakaan', 'pelaku', 'aksi']</t>
+  </si>
+  <si>
+    <t>['truk', 'meninggal', 'penumpang', 'mengalami_luka', 'kendaraan', 'diduga', 'menabrak', 'bernama', 'pengemudi', 'sopir', 'luka', 'kejadian', 'arah', 'korban', 'tewas', 'meninggal_dunia', 'kecelakaan']</t>
+  </si>
+  <si>
+    <t>['terkait', 'kecelakaan', 'sepeda_motor', 'menyebut']</t>
+  </si>
+  <si>
+    <t>['truk', 'mobil', 'peristiwa', 'kendaraan', 'kecelakaan', 'terkait', 'pengemudi', 'jakarta', 'luka', 'arah', 'korban', 'tol', 'kemacetan', 'jalan']</t>
+  </si>
+  <si>
+    <t>['peristiwa', 'diduga', 'kecelakaan', 'bernama', 'api', 'keluarga', 'kereta', 'kejadian', 'arah', 'korban', 'jalan', 'tewas', 'warga', 'rumah', 'motor', 'sepeda_motor', 'anaknya', 'tertabrak']</t>
+  </si>
+  <si>
+    <t>['truk', 'mengaku', 'menabrak', 'kecelakaan', 'luka', 'kejadian', 'arah', 'korban', 'jalan', 'tewas', 'langsung', 'rumah_sakit']</t>
+  </si>
+  <si>
+    <t>['mobil', 'meninggal', 'polisi', 'mengalami_luka', 'kecelakaan', 'kendaraan', 'menabrak', 'pengemudi', 'nomor', 'luka', 'kejadian', 'arah', 'korban', 'kegiatan', 'meninggal_dunia', 'jalan', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['polisi', 'mengalami_luka', 'luka', 'tewas', 'jenazah', 'kecelakaan', 'tertabrak', 'purwakarta', 'rumah_sakit', 'mobil', 'surabaya', 'korban', 'motor', 'keluarga', 'anaknya', 'lubang', 'kendaraan', 'kegiatan', 'warga', 'rumah', 'jalan', 'siti']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'meninggal', 'keluarga', 'kesehatan', 'rumah', 'meninggal_dunia', 'kecelakaan', 'pelaku', 'remaja']</t>
+  </si>
+  <si>
+    <t>['truk', 'kendaraan', 'peristiwa', 'penumpang', 'menabrak', 'kecelakaan', 'pengemudi', 'kejadian', 'arah', 'korban', 'jalan', 'kesehatan', 'warga', 'rumah', 'langsung', 'kondisi', 'jalur']</t>
+  </si>
+  <si>
+    <t>['truk', 'kendaraan', 'peristiwa', 'menabrak', 'diduga', 'polda_metro', 'kecelakaan', 'pengemudi', 'nggak', 'jakarta', 'arah', 'korban', 'kemacetan', 'jalan', 'menyebut']</t>
+  </si>
+  <si>
+    <t>['truk', 'kendaraan', 'menabrak', 'kecelakaan', 'pengemudi', 'sopir', 'jakarta', 'tol', 'arah', 'korban', 'lintas', 'jalan', 'jalur']</t>
+  </si>
+  <si>
+    <t>['mengalami_luka', 'peristiwa', 'diduga', 'kecelakaan', 'bernama', 'luka', 'motor', 'korban', 'jalan', 'warga', 'sepeda_motor', 'langsung', 'kondisi', 'rumah_sakit']</t>
+  </si>
+  <si>
+    <t>['truk', 'meninggal', 'penumpang', 'mengalami_luka', 'kendaraan', 'menabrak', 'bernama', 'pengemudi', 'luka', 'arah', 'korban', 'tewas', 'kecelakaan', 'rumah_sakit']</t>
+  </si>
+  <si>
+    <t>['truk', 'meninggal', 'mengalami_luka', 'kecelakaan', 'luka', 'korban', 'tewas', 'warga', 'meninggal_dunia', 'jalan', 'rumah_sakit']</t>
+  </si>
+  <si>
+    <t>['truk', 'mengalami_luka', 'peristiwa', 'kecelakaan', 'luka', 'arah', 'korban', 'bogor', 'motor', 'sepeda_motor']</t>
+  </si>
+  <si>
+    <t>['polisi', 'mengalami_luka', 'diduga', 'sopir', 'luka', 'arah', 'tewas', 'jenazah', 'mojokerto', 'kecelakaan', 'kejadian', 'korban', 'peristiwa', 'pengemudi', 'tol', 'truk', 'kendaraan', 'menabrak', 'bernama', 'warga']</t>
+  </si>
+  <si>
+    <t>['polisi', 'peristiwa', 'tersangka', 'korban', 'kecelakaan', 'kondisi', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['mobil', 'peristiwa', 'penumpang', 'polisi', 'kecelakaan', 'mengalami_luka', 'kendaraan', 'pengemudi', 'menabrak', 'luka', 'arah', 'rumah', 'jalan']</t>
+  </si>
+  <si>
+    <t>['mobil', 'meninggal', 'peristiwa', 'polisi', 'diduga', 'kendaraan', 'menabrak', 'korban', 'kecelakaan', 'tertabrak']</t>
+  </si>
+  <si>
+    <t>['truk', 'meninggal', 'mengalami_luka', 'menabrak', 'kecelakaan', 'sopir', 'luka', 'korban', 'tewas', 'warga', 'meninggal_dunia', 'jalan']</t>
+  </si>
+  <si>
+    <t>['kendaraan', 'jakarta', 'tol', 'arah', 'kecelakaan']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'peristiwa', 'polisi', 'polda_metro', 'bernama', 'tersangka', 'keluarga', 'korban', 'siti']</t>
+  </si>
+  <si>
+    <t>['truk', 'mobil', 'rombongan', 'kendaraan', 'menabrak', 'pengemudi', 'sopir', 'kejadian', 'arah', 'korban', 'semarang', 'warga', 'kecelakaan', 'bus']</t>
+  </si>
+  <si>
+    <t>['truk', 'polisi', 'mengalami_luka', 'kendaraan', 'menabrak', 'kecelakaan', 'pengemudi', 'luka', 'korban', 'jalan', 'tewas', 'meninggal_dunia', 'motor', 'sepeda_motor', 'anaknya']</t>
+  </si>
+  <si>
+    <t>['polisi', 'ditemukan', 'terkait', 'api', 'kereta', 'jakarta', 'kejadian', 'luka', 'korban', 'tewas', 'langsung', 'tertabrak']</t>
+  </si>
+  <si>
+    <t>['penumpang', 'ditemukan', 'pesawat', 'api', 'pencarian', 'kejadian', 'korban']</t>
+  </si>
+  <si>
+    <t>['titik', 'truk', 'mobil', 'mengalami_luka', 'kecelakaan', 'bernama', 'sopir', 'luka', 'arah', 'korban', 'jalan', 'semarang', 'tewas', 'warga', 'jenazah', 'motor', 'sepeda_motor']</t>
+  </si>
+  <si>
+    <t>['mobil', 'peristiwa', 'polisi', 'kendaraan', 'kecelakaan', 'pengemudi', 'sopir', 'jakarta', 'luka', 'korban', 'lintas', 'jalan', 'menyebut']</t>
+  </si>
+  <si>
+    <t>['mobil', 'meninggal', 'peristiwa', 'rombongan', 'kendaraan', 'luka', 'kejadian', 'korban', 'tewas', 'warga', 'meninggal_dunia', 'kecelakaan', 'tertabrak', 'bus']</t>
+  </si>
+  <si>
+    <t>['titik', 'peristiwa', 'ditemukan', 'pencarian', 'arah', 'korban', 'tewas', 'jenazah', 'kecelakaan']</t>
+  </si>
+  <si>
+    <t>['titik', 'mengaku', 'penumpang', 'polisi', 'kecelakaan', 'pengemudi', 'sopir', 'nomor', 'kejadian', 'bogor', 'kegiatan', 'langsung', 'menyebut']</t>
+  </si>
+  <si>
+    <t>['polisi', 'kecelakaan', 'ditemukan', 'bernama', 'luka', 'korban', 'tewas', 'warga', 'rumah', 'langsung', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'mengalami_luka', 'luka', 'indonesia', 'kecelakaan', 'kondisi', 'rumah_sakit', 'nggak', 'kejadian', 'korban', 'motor', 'sepeda_motor', 'aksi', 'pengemudi', 'langsung', 'kendaraan', 'bernama', 'kegiatan', 'warga', 'jalan', 'menyebut']</t>
+  </si>
+  <si>
+    <t>['polisi', 'diduga', 'sopir', 'luka', 'arah', 'tewas', 'meninggal_dunia', 'kondisi', 'rumah_sakit', 'mobil', 'nomor', 'kejadian', 'korban', 'lintas', 'penumpang', 'keluarga', 'truk', 'menabrak', 'warga', 'jalan', 'siti']</t>
+  </si>
+  <si>
+    <t>['mobil', 'meninggal', 'keluarga', 'luka', 'korban', 'tewas', 'kecelakaan', 'kondisi', 'anaknya']</t>
+  </si>
+  <si>
+    <t>['mobil', 'peristiwa', 'polisi', 'rombongan', 'kendaraan', 'luka', 'kejadian', 'korban', 'tewas', 'lintas', 'jalan']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'mobil', 'polisi', 'kendaraan', 'tersangka', 'kejadian', 'korban', 'warga', 'kerja', 'rumah_sakit', 'kecelakaan', 'pelaku', 'menyebut']</t>
+  </si>
+  <si>
+    <t>['mobil', 'mengaku', 'peristiwa', 'menabrak', 'kecelakaan', 'nggak', 'warga', 'magetan', 'langsung', 'tertabrak']</t>
+  </si>
+  <si>
+    <t>['keselamatan', 'peristiwa', 'menabrak', 'terkait', 'arah', 'kapal', 'kondisi']</t>
+  </si>
+  <si>
+    <t>['diduga', 'ditemukan', 'bernama', 'keluarga', 'pencarian', 'kejadian', 'korban', 'tewas', 'kapal', 'tenggelam', 'langsung', 'kondisi']</t>
+  </si>
+  <si>
+    <t>['mobil', 'surabaya', 'peristiwa', 'kendaraan', 'uang', 'memiliki', 'luka', 'kejadian', 'korban', 'indonesia', 'warga', 'tenggelam', 'kecelakaan', 'lubang']</t>
+  </si>
+  <si>
+    <t>['mobil', 'penumpang', 'mengalami_luka', 'menabrak', 'bernama', 'pengemudi', 'terkait', 'luka', 'kejadian', 'arah', 'korban', 'jalan', 'lintas', 'tewas', 'meninggal_dunia', 'motor', 'sepeda_motor', 'rumah_sakit']</t>
+  </si>
+  <si>
+    <t>['korban', 'kecelakaan', 'nomor', 'kerja']</t>
+  </si>
+  <si>
+    <t>['mobil', 'meninggal', 'penumpang', 'kendaraan', 'diduga', 'ditemukan', 'kecelakaan', 'menabrak', 'sopir', 'kejadian', 'korban', 'tewas', 'lintas', 'meninggal_dunia', 'jalan', 'kondisi', 'bus', 'jalur']</t>
+  </si>
+  <si>
+    <t>['mobil', 'keselamatan', 'kendaraan', 'kecelakaan', 'memiliki', 'lintas', 'warga', 'kerja', 'motor', 'sepeda_motor']</t>
+  </si>
+  <si>
+    <t>['penumpang', 'kecelakaan', 'terkait', 'pesawat', 'nomor', 'memiliki', 'jakarta', 'kejadian', 'korban', 'jalan', 'indonesia', 'kerja', 'meninggal_dunia', 'langsung', 'aksi']</t>
+  </si>
+  <si>
+    <t>['mobil', 'kendaraan', 'diduga', 'kecelakaan', 'pengemudi', 'sopir', 'luka', 'kejadian', 'arah', 'korban', 'lintas', 'warga', 'kemacetan', 'jalan']</t>
+  </si>
+  <si>
+    <t>['peristiwa', 'diduga', 'kecelakaan', 'api', 'keluarga', 'kereta', 'kejadian', 'arah', 'korban', 'jalan', 'tewas', 'warga', 'motor', 'sepeda_motor', 'tertabrak']</t>
+  </si>
+  <si>
+    <t>['keselamatan', 'memiliki', 'api', 'kereta', 'lintas', 'meninggal_dunia', 'kecelakaan']</t>
+  </si>
+  <si>
+    <t>['terkait', 'kereta', 'jakarta', 'kejadian', 'luka', 'korban', 'tewas', 'kecelakaan', 'menyebut']</t>
+  </si>
+  <si>
+    <t>['peristiwa', 'terkait', 'keluarga', 'korban', 'warga', 'kecelakaan']</t>
+  </si>
+  <si>
+    <t>['truk', 'mengalami_luka', 'sopir', 'luka', 'arah', 'korban', 'tewas', 'warga', 'meninggal_dunia', 'kecelakaan', 'sepeda_motor']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'diduga', 'sopir', 'tewas', 'magetan', 'kecelakaan', 'meninggal', 'kejadian', 'korban', 'semarang', 'lintas', 'bus', 'jalur', 'rombongan', 'penumpang', 'kendaraan', 'menabrak', 'kegiatan', 'warga', 'jalan']</t>
+  </si>
+  <si>
+    <t>['truk', 'kecelakaan', 'terkait', 'kejadian', 'korban', 'jalan']</t>
+  </si>
+  <si>
+    <t>['mobil', 'peristiwa', 'penumpang', 'polisi', 'diduga', 'kecelakaan', 'bernama', 'pengemudi', 'mengalami_luka', 'luka', 'kejadian', 'tewas', 'warga', 'jalan', 'menyebut']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'peristiwa', 'kecelakaan', 'bernama', 'korban', 'tewas', 'jalan']</t>
+  </si>
+  <si>
+    <t>['polisi', 'meninggal', 'luka', 'kejadian', 'lintas', 'meninggal_dunia', 'kecelakaan']</t>
+  </si>
+  <si>
+    <t>['polisi', 'peristiwa', 'kecelakaan', 'api', 'kereta', 'korban', 'langsung', 'menyebut', 'aksi']</t>
+  </si>
+  <si>
+    <t>['langsung', 'truk', 'menabrak', 'diduga', 'kecelakaan', 'pengemudi', 'luka', 'kejadian', 'korban', 'jalan', 'tewas', 'motor']</t>
+  </si>
+  <si>
+    <t>['langsung', 'truk', 'mobil', 'peristiwa', 'kendaraan', 'pengemudi', 'memiliki', 'kejadian', 'korban', 'jalan', 'tewas', 'lintas', 'motor', 'sepeda_motor', 'rumah_sakit']</t>
+  </si>
+  <si>
+    <t>['mobil', 'polisi', 'polda_metro', 'latif', 'kecelakaan', 'terkait', 'jakarta', 'kejadian', 'korban', 'indonesia', 'tertabrak', 'motor', 'esbw', 'hasya', 'mahasiswa']</t>
+  </si>
+  <si>
+    <t>['polisi', 'latif', 'eko', 'luka', 'tewas', 'meninggal_dunia', 'kecelakaan', 'kondisi', 'tertabrak', 'mobil', 'polda_metro', 'korban', 'lintas', 'motor', 'hasya', 'mahasiswa', 'jakarta', 'truk', 'menabrak', 'tersangka', 'jalan']</t>
+  </si>
+  <si>
+    <t>['peristiwa', 'api', 'keluarga', 'kereta', 'kejadian', 'arah', 'korban', 'tewas', 'rumah', 'langsung', 'sepeda_motor', 'anaknya', 'tertabrak']</t>
+  </si>
+  <si>
+    <t>['polisi', 'penumpang', 'menabrak', 'pesawat', 'lintas', 'langsung', 'kondisi']</t>
+  </si>
+  <si>
+    <t>['truk', 'mengaku', 'kecelakaan', 'ditemukan', 'bernama', 'pesawat', 'keluarga', 'api', 'rumah', 'jalan', 'and', 'rumah_sakit']</t>
+  </si>
+  <si>
+    <t>['truk', 'mengaku', 'penumpang', 'menabrak', 'uang', 'kecelakaan', 'terkait', 'sopir', 'luka', 'jalan', 'kondisi', 'bus', 'jalur']</t>
+  </si>
+  <si>
+    <t>['polisi', 'penumpang', 'rombongan', 'kecelakaan', 'tersangka', 'keluarga', 'nomor', 'sopir', 'kejadian', 'luka', 'korban', 'tewas', 'lintas', 'jalan', 'kondisi']</t>
+  </si>
+  <si>
+    <t>['rombongan', 'penumpang', 'korban', 'semarang', 'magetan', 'kecelakaan', 'bus', 'menyebut', 'jalur']</t>
+  </si>
+  <si>
+    <t>['truk', 'kendaraan', 'polisi', 'latif', 'warga', 'kapal', 'langsung', 'bus', 'menyebut']</t>
+  </si>
+  <si>
+    <t>['peristiwa', 'kecelakaan', 'terkait', 'kereta', 'jakarta', 'kejadian', 'luka', 'korban', 'indonesia', 'langsung', 'menyebut']</t>
+  </si>
+  <si>
+    <t>['keluarga', 'nomor', 'jakarta', 'korban', 'jenazah', 'rumah', 'kecelakaan']</t>
+  </si>
+  <si>
+    <t>['memiliki', 'indonesia', 'kerja', 'meninggal_dunia', 'kecelakaan']</t>
+  </si>
+  <si>
+    <t>['truk', 'mengalami_luka', 'kendaraan', 'kecelakaan', 'pengemudi', 'luka', 'kejadian', 'motor', 'korban', 'tewas', 'warga', 'lintas', 'meninggal_dunia', 'sepeda_motor', 'jalan', 'kondisi']</t>
+  </si>
+  <si>
+    <t>['kecelakaan', 'nomor', 'jakarta', 'jalan', 'lintas', 'warga', 'langsung']</t>
+  </si>
+  <si>
+    <t>['polisi', 'mengalami_luka', 'luka', 'tewas', 'meninggal_dunia', 'kecelakaan', 'kondisi', 'tertabrak', 'meninggal', 'kejadian', 'korban', 'motor', 'sepeda_motor', 'lubang', 'truk', 'kendaraan', 'menabrak', 'warga', 'jalan', 'menyebut']</t>
+  </si>
+  <si>
+    <t>['truk', 'mobil', 'surabaya', 'kendaraan', 'menabrak', 'kecelakaan', 'nomor', 'kereta', 'arah', 'warga', 'mojokerto', 'jalan', 'tertabrak', 'jalur']</t>
+  </si>
+  <si>
+    <t>['polisi', 'rombongan', 'kecelakaan', 'luka', 'semarang', 'tewas', 'magetan', 'jalan', 'kondisi', 'bus', 'jalur']</t>
+  </si>
+  <si>
+    <t>['penumpang', 'sopir', 'luka', 'kejadian', 'korban', 'tewas', 'magetan', 'kecelakaan', 'bus', 'rumah_sakit']</t>
+  </si>
+  <si>
+    <t>['titik', 'keselamatan', 'surabaya', 'penumpang', 'terkait', 'nomor', 'kegiatan', 'kapal', 'kecelakaan', 'kondisi', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['mengalami_luka', 'diduga', 'luka', 'tewas', 'kecelakaan', 'kondisi', 'purwakarta', 'rumah_sakit', 'mobil', 'meninggal', 'kejadian', 'korban', 'bus', 'penumpang', 'pengemudi', 'tol', 'langsung', 'kendaraan', 'menabrak', 'jalan']</t>
+  </si>
+  <si>
+    <t>['mengalami_luka', 'penumpang', 'menabrak', 'diduga', 'luka', 'kejadian', 'korban', 'kapal', 'tenggelam', 'kecelakaan']</t>
+  </si>
+  <si>
+    <t>['terkait', 'arah', 'kapal', 'tenggelam', 'jalan', 'kondisi', 'menyebut']</t>
+  </si>
+  <si>
+    <t>['surabaya', 'menabrak', 'diduga', 'kecelakaan', 'eko', 'luka', 'arah', 'korban', 'warga', 'mojokerto', 'motor', 'sepeda_motor', 'tertabrak', 'jalur']</t>
+  </si>
+  <si>
+    <t>['langsung', 'mengaku', 'polisi', 'mengalami_luka', 'kecelakaan', 'terkait', 'nomor', 'keluarga', 'luka', 'kejadian', 'jalan', 'lintas', 'rumah', 'motor', 'menyebut', 'kondisi', 'rumah_sakit']</t>
+  </si>
+  <si>
+    <t>['kecelakaan', 'terkait', 'memiliki', 'jakarta', 'korban', 'kerja', 'jalan', 'menyebut', 'aksi']</t>
+  </si>
+  <si>
+    <t>['kecelakaan', 'ditemukan', 'bernama', 'pencarian', 'korban', 'tewas', 'warga', 'rumah', 'meninggal_dunia', 'tenggelam', 'langsung', 'anaknya']</t>
+  </si>
+  <si>
+    <t>['mengalami_luka', 'peristiwa', 'penumpang', 'bernama', 'keluarga', 'luka', 'kejadian', 'korban', 'kapal', 'tenggelam']</t>
+  </si>
+  <si>
+    <t>['mobil', 'polisi', 'menabrak', 'bernama', 'kejadian', 'kesehatan', 'korban', 'lintas', 'warga', 'jenazah', 'meninggal_dunia', 'tewas', 'langsung', 'rumah_sakit']</t>
+  </si>
+  <si>
+    <t>['titik', 'kendaraan', 'penumpang', 'bernama', 'jakarta', 'kemacetan', 'kecelakaan', 'bus']</t>
+  </si>
+  <si>
+    <t>['truk', 'keselamatan', 'rombongan', 'polisi', 'kecelakaan', 'pengemudi', 'sopir', 'kejadian', 'korban', 'bogor', 'kegiatan', 'tertabrak', 'langsung', 'anaknya', 'remaja', 'aksi']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'meninggal', 'penumpang', 'polisi', 'ditemukan', 'bernama', 'keluarga', 'korban', 'kapal', 'kerja', 'tenggelam', 'menyebut', 'siti']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'kecelakaan', 'memiliki', 'pencarian', 'jakarta', 'indonesia', 'lintas', 'kapal', 'warga', 'langsung', 'menyebut', 'kondisi', 'and', 'aksi']</t>
+  </si>
+  <si>
+    <t>['meninggal', 'ditemukan', 'terkait', 'pesawat', 'keluarga', 'pencarian', 'jakarta', 'korban', 'tewas', 'kapal', 'jenazah', 'meninggal_dunia', 'langsung', 'kondisi', 'and', 'menyebut']</t>
+  </si>
+  <si>
+    <t>['mengalami_luka', 'menabrak', 'diduga', 'kecelakaan', 'luka', 'kejadian', 'arah', 'korban', 'jalan', 'jalur']</t>
+  </si>
+  <si>
+    <t>['polisi', 'kecelakaan', 'terkait', 'kejadian', 'warga', 'jalan', 'pelaku', 'aksi']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'polisi', 'kendaraan', 'uang', 'ditemukan', 'memiliki', 'tersangka', 'kejadian', 'kecelakaan', 'remaja', 'aksi']</t>
+  </si>
+  <si>
+    <t>['mobil', 'rombongan', 'menabrak', 'kecelakaan', 'sopir', 'keluarga', 'kejadian', 'korban', 'jalan', 'warga', 'langsung', 'kondisi', 'rumah_sakit', 'jalur']</t>
+  </si>
+  <si>
+    <t>['truk', 'kendaraan', 'menabrak', 'diduga', 'kecelakaan', 'pengemudi', 'sopir', 'luka', 'kejadian', 'arah', 'korban', 'rumah', 'jalan', 'jalur']</t>
+  </si>
+  <si>
+    <t>['mobil', 'kecelakaan', 'keluarga', 'jakarta', 'kesehatan', 'indonesia', 'warga', 'jalan', 'anaknya', 'aksi']</t>
+  </si>
+  <si>
+    <t>['keselamatan', 'terkait', 'memiliki', 'jakarta', 'tol', 'korban', 'lintas', 'kerja', 'rumah', 'kecelakaan', 'pelaku', 'jalur']</t>
+  </si>
+  <si>
+    <t>['truk', 'mobil', 'kendaraan', 'menabrak', 'diduga', 'kecelakaan', 'pengemudi', 'kejadian', 'arah', 'korban', 'warga', 'jalan']</t>
+  </si>
+  <si>
+    <t>['keselamatan', 'peristiwa', 'penumpang', 'kejadian', 'motor', 'korban', 'kapal', 'tenggelam', 'langsung']</t>
+  </si>
+  <si>
+    <t>['polisi', 'meninggal', 'kereta', 'jakarta', 'kejadian', 'luka', 'korban', 'tewas', 'kecelakaan', 'jalur']</t>
+  </si>
+  <si>
+    <t>['mengalami_luka', 'diduga', 'bernama', 'luka', 'korban', 'warga', 'rumah', 'kecelakaan']</t>
+  </si>
+  <si>
+    <t>['mobil', 'kendaraan', 'kondisi', 'lintas', 'sepeda_motor', 'jalur']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'meninggal', 'polisi', 'tersangka', 'keluarga', 'jakarta', 'bogor', 'pelaku', 'indonesia', 'tewas', 'rumah', 'meninggal_dunia', 'kecelakaan', 'esbw', 'anaknya', 'hasya', 'mahasiswa']</t>
+  </si>
+  <si>
+    <t>['penumpang', 'menabrak', 'jakarta', 'kejadian', 'kesehatan', 'korban', 'kapal', 'tenggelam', 'motor', 'kondisi']</t>
+  </si>
+  <si>
+    <t>['mobil', 'peristiwa', 'penumpang', 'diduga', 'pengemudi', 'sopir', 'keluarga', 'api', 'kereta', 'kejadian', 'arah', 'korban', 'tewas', 'warga', 'meninggal_dunia', 'kecelakaan', 'anaknya', 'tertabrak']</t>
+  </si>
+  <si>
+    <t>['truk', 'mengaku', 'sopir', 'kejadian', 'korban', 'bogor', 'tewas', 'kecelakaan']</t>
+  </si>
+  <si>
+    <t>['titik', 'meninggal', 'kecelakaan', 'luka', 'kejadian', 'korban', 'lintas', 'meninggal_dunia', 'jalan']</t>
+  </si>
+  <si>
+    <t>['meninggal', 'peristiwa', 'terkait', 'jakarta', 'kejadian', 'korban', 'meninggal_dunia', 'kecelakaan', 'kondisi', 'anaknya']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8369,6 +8369,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -8406,11 +8414,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8716,7 +8725,7 @@
   <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8761,76 +8770,76 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8839,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>392</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8848,15 +8857,15 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8865,7 +8874,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>393</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -8874,15 +8883,15 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -8891,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>394</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -8900,15 +8909,15 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -8917,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>395</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -8926,15 +8935,15 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -8943,7 +8952,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>396</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -8952,15 +8961,15 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -8969,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>397</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -8978,15 +8987,15 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -8995,7 +9004,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>398</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -9004,15 +9013,15 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -9021,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>399</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -9030,15 +9039,15 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -9047,7 +9056,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>400</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -9056,15 +9065,15 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -9073,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>401</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -9082,15 +9091,15 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -9099,7 +9108,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>402</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -9108,15 +9117,15 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -9125,7 +9134,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>403</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -9134,15 +9143,15 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -9151,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>404</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -9160,15 +9169,15 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -9177,7 +9186,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>405</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -9186,15 +9195,15 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -9203,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>406</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -9212,15 +9221,15 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -9229,7 +9238,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>407</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -9238,15 +9247,15 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -9255,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>408</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -9264,15 +9273,15 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -9281,7 +9290,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>409</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -9290,15 +9299,15 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -9307,7 +9316,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>410</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -9316,15 +9325,15 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -9333,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>411</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -9342,15 +9351,15 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -9359,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>412</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -9368,15 +9377,15 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -9385,7 +9394,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>413</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -9394,15 +9403,15 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -9411,7 +9420,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>414</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -9420,15 +9429,15 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -9437,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>114</v>
+        <v>415</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -9446,15 +9455,15 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -9463,7 +9472,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>416</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -9472,15 +9481,15 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -9489,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>417</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -9498,15 +9507,15 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -9515,7 +9524,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>418</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -9524,15 +9533,15 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -9541,7 +9550,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
+        <v>419</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -9550,15 +9559,15 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -9567,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>134</v>
+        <v>420</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -9576,15 +9585,15 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -9593,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>138</v>
+        <v>421</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -9602,15 +9611,15 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -9619,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>142</v>
+        <v>422</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -9628,15 +9637,15 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -9645,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>146</v>
+        <v>423</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -9654,15 +9663,15 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -9671,7 +9680,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>150</v>
+        <v>424</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -9680,15 +9689,15 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -9697,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>154</v>
+        <v>425</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -9706,15 +9715,15 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="B39" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -9723,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>158</v>
+        <v>426</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -9732,15 +9741,15 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -9749,7 +9758,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>162</v>
+        <v>427</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -9758,15 +9767,15 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -9775,7 +9784,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>166</v>
+        <v>428</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -9784,15 +9793,15 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -9801,7 +9810,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>170</v>
+        <v>429</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -9810,15 +9819,15 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -9827,7 +9836,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>174</v>
+        <v>430</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -9836,15 +9845,15 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -9853,7 +9862,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>178</v>
+        <v>431</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -9862,15 +9871,15 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="B45" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -9879,7 +9888,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>182</v>
+        <v>432</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -9888,15 +9897,15 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="B46" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -9905,7 +9914,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>186</v>
+        <v>433</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -9914,15 +9923,15 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="B47" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -9931,7 +9940,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>190</v>
+        <v>434</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -9940,15 +9949,15 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="B48" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -9957,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>194</v>
+        <v>435</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -9966,15 +9975,15 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="B49" t="s">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -9983,7 +9992,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>198</v>
+        <v>436</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -9992,15 +10001,15 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="B50" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -10009,7 +10018,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>202</v>
+        <v>437</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -10018,15 +10027,15 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="B51" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -10035,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>206</v>
+        <v>438</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -10044,15 +10053,15 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="B52" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -10061,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>210</v>
+        <v>439</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -10070,15 +10079,15 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="B53" t="s">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -10087,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -10096,15 +10105,15 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="B54" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -10113,7 +10122,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>218</v>
+        <v>441</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -10122,15 +10131,15 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="B55" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -10139,7 +10148,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>222</v>
+        <v>442</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -10148,15 +10157,15 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="B56" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -10165,7 +10174,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>226</v>
+        <v>443</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -10174,15 +10183,15 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="B57" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -10191,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>230</v>
+        <v>444</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -10200,15 +10209,15 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c r="B58" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -10217,7 +10226,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>234</v>
+        <v>445</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -10226,15 +10235,15 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="B59" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -10243,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>238</v>
+        <v>446</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -10252,15 +10261,15 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="B60" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -10269,7 +10278,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>242</v>
+        <v>447</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -10278,15 +10287,15 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>243</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="B61" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -10295,7 +10304,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>246</v>
+        <v>448</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -10304,15 +10313,15 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>248</v>
+        <v>188</v>
       </c>
       <c r="B62" t="s">
-        <v>249</v>
+        <v>189</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -10321,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>250</v>
+        <v>449</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -10330,15 +10339,15 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="B63" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -10347,7 +10356,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>254</v>
+        <v>450</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -10356,15 +10365,15 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>255</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="B64" t="s">
-        <v>257</v>
+        <v>195</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -10373,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>258</v>
+        <v>451</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -10382,15 +10391,15 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>259</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="B65" t="s">
-        <v>261</v>
+        <v>198</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -10399,7 +10408,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>262</v>
+        <v>452</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -10408,15 +10417,15 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>264</v>
+        <v>200</v>
       </c>
       <c r="B66" t="s">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -10425,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>266</v>
+        <v>453</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -10434,15 +10443,15 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>267</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>268</v>
+        <v>203</v>
       </c>
       <c r="B67" t="s">
-        <v>269</v>
+        <v>204</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -10451,7 +10460,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>270</v>
+        <v>454</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -10460,15 +10469,15 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>271</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="B68" t="s">
-        <v>273</v>
+        <v>207</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -10477,7 +10486,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>274</v>
+        <v>455</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -10486,15 +10495,15 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>275</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
       <c r="B69" t="s">
-        <v>277</v>
+        <v>210</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -10503,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>278</v>
+        <v>456</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -10512,15 +10521,15 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>279</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>280</v>
+        <v>212</v>
       </c>
       <c r="B70" t="s">
-        <v>281</v>
+        <v>213</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -10529,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>282</v>
+        <v>457</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -10538,15 +10547,15 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>283</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>284</v>
+        <v>215</v>
       </c>
       <c r="B71" t="s">
-        <v>285</v>
+        <v>216</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -10555,7 +10564,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>286</v>
+        <v>458</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -10564,15 +10573,15 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>287</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>288</v>
+        <v>218</v>
       </c>
       <c r="B72" t="s">
-        <v>289</v>
+        <v>219</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -10581,7 +10590,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>290</v>
+        <v>459</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -10590,15 +10599,15 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>291</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>292</v>
+        <v>221</v>
       </c>
       <c r="B73" t="s">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -10607,7 +10616,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>294</v>
+        <v>460</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -10616,15 +10625,15 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>295</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>296</v>
+        <v>224</v>
       </c>
       <c r="B74" t="s">
-        <v>297</v>
+        <v>225</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -10633,7 +10642,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>298</v>
+        <v>461</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -10642,15 +10651,15 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="B75" t="s">
-        <v>301</v>
+        <v>228</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -10659,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>302</v>
+        <v>462</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -10668,15 +10677,15 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>303</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="B76" t="s">
-        <v>305</v>
+        <v>231</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -10685,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>306</v>
+        <v>463</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -10694,15 +10703,15 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>307</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>308</v>
+        <v>233</v>
       </c>
       <c r="B77" t="s">
-        <v>309</v>
+        <v>234</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -10711,7 +10720,7 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>310</v>
+        <v>464</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -10720,15 +10729,15 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>312</v>
+        <v>236</v>
       </c>
       <c r="B78" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -10737,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>314</v>
+        <v>465</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -10746,15 +10755,15 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>315</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>316</v>
+        <v>239</v>
       </c>
       <c r="B79" t="s">
-        <v>317</v>
+        <v>240</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -10763,7 +10772,7 @@
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>318</v>
+        <v>466</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -10772,15 +10781,15 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>319</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>320</v>
+        <v>242</v>
       </c>
       <c r="B80" t="s">
-        <v>321</v>
+        <v>243</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -10789,7 +10798,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>322</v>
+        <v>467</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -10798,15 +10807,15 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>323</v>
+        <v>244</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>324</v>
+        <v>245</v>
       </c>
       <c r="B81" t="s">
-        <v>325</v>
+        <v>246</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -10815,7 +10824,7 @@
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>326</v>
+        <v>468</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -10824,15 +10833,15 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>327</v>
+        <v>247</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>328</v>
+        <v>248</v>
       </c>
       <c r="B82" t="s">
-        <v>329</v>
+        <v>249</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -10841,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>330</v>
+        <v>469</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -10850,15 +10859,15 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>331</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>332</v>
+        <v>251</v>
       </c>
       <c r="B83" t="s">
-        <v>333</v>
+        <v>252</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -10867,7 +10876,7 @@
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>334</v>
+        <v>470</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -10876,15 +10885,15 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>335</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>336</v>
+        <v>254</v>
       </c>
       <c r="B84" t="s">
-        <v>337</v>
+        <v>255</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -10893,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>338</v>
+        <v>471</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -10902,15 +10911,15 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>339</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>340</v>
+        <v>257</v>
       </c>
       <c r="B85" t="s">
-        <v>341</v>
+        <v>258</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -10919,7 +10928,7 @@
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>342</v>
+        <v>472</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -10928,15 +10937,15 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>343</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>344</v>
+        <v>260</v>
       </c>
       <c r="B86" t="s">
-        <v>345</v>
+        <v>261</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -10945,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>346</v>
+        <v>473</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -10954,15 +10963,15 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="B87" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -10971,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>350</v>
+        <v>474</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -10980,15 +10989,15 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>351</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>352</v>
+        <v>266</v>
       </c>
       <c r="B88" t="s">
-        <v>353</v>
+        <v>267</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -10997,7 +11006,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>354</v>
+        <v>475</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -11006,15 +11015,15 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>355</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>356</v>
+        <v>269</v>
       </c>
       <c r="B89" t="s">
-        <v>357</v>
+        <v>270</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -11023,7 +11032,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>358</v>
+        <v>476</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -11032,15 +11041,15 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>359</v>
+        <v>271</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="B90" t="s">
-        <v>361</v>
+        <v>273</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -11049,7 +11058,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>362</v>
+        <v>477</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -11058,15 +11067,15 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>363</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>364</v>
+        <v>275</v>
       </c>
       <c r="B91" t="s">
-        <v>365</v>
+        <v>276</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -11075,7 +11084,7 @@
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>366</v>
+        <v>478</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -11084,15 +11093,15 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>367</v>
+        <v>277</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>368</v>
+        <v>278</v>
       </c>
       <c r="B92" t="s">
-        <v>369</v>
+        <v>279</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -11101,7 +11110,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>370</v>
+        <v>479</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -11110,15 +11119,15 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>371</v>
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>372</v>
+        <v>281</v>
       </c>
       <c r="B93" t="s">
-        <v>373</v>
+        <v>282</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -11127,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>374</v>
+        <v>480</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -11136,15 +11145,15 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>375</v>
+        <v>283</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>376</v>
+        <v>284</v>
       </c>
       <c r="B94" t="s">
-        <v>377</v>
+        <v>285</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -11153,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>378</v>
+        <v>481</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -11162,15 +11171,15 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>379</v>
+        <v>286</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>380</v>
+        <v>287</v>
       </c>
       <c r="B95" t="s">
-        <v>381</v>
+        <v>288</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -11179,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>382</v>
+        <v>482</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -11188,15 +11197,15 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>383</v>
+        <v>289</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>384</v>
+        <v>290</v>
       </c>
       <c r="B96" t="s">
-        <v>385</v>
+        <v>291</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -11205,7 +11214,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>386</v>
+        <v>483</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -11214,15 +11223,15 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>387</v>
+        <v>292</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>388</v>
+        <v>293</v>
       </c>
       <c r="B97" t="s">
-        <v>389</v>
+        <v>294</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -11231,7 +11240,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>390</v>
+        <v>484</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -11240,15 +11249,15 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>391</v>
+        <v>295</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>392</v>
+        <v>296</v>
       </c>
       <c r="B98" t="s">
-        <v>393</v>
+        <v>297</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -11257,7 +11266,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>394</v>
+        <v>485</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -11266,15 +11275,15 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>395</v>
+        <v>298</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>396</v>
+        <v>299</v>
       </c>
       <c r="B99" t="s">
-        <v>397</v>
+        <v>300</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -11283,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>398</v>
+        <v>486</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -11292,15 +11301,15 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>399</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>400</v>
+        <v>302</v>
       </c>
       <c r="B100" t="s">
-        <v>401</v>
+        <v>303</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -11309,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>402</v>
+        <v>487</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -11318,15 +11327,15 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>403</v>
+        <v>304</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>404</v>
+        <v>305</v>
       </c>
       <c r="B101" t="s">
-        <v>405</v>
+        <v>306</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -11335,7 +11344,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>406</v>
+        <v>488</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -11344,15 +11353,15 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>407</v>
+        <v>307</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>408</v>
+        <v>308</v>
       </c>
       <c r="B102" t="s">
-        <v>409</v>
+        <v>309</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -11361,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>410</v>
+        <v>489</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -11370,15 +11379,15 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>411</v>
+        <v>310</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>412</v>
+        <v>311</v>
       </c>
       <c r="B103" t="s">
-        <v>413</v>
+        <v>312</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -11387,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>414</v>
+        <v>490</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -11396,15 +11405,15 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>415</v>
+        <v>313</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>416</v>
+        <v>314</v>
       </c>
       <c r="B104" t="s">
-        <v>417</v>
+        <v>315</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -11413,7 +11422,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>418</v>
+        <v>491</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -11422,15 +11431,15 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>419</v>
+        <v>316</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>420</v>
+        <v>317</v>
       </c>
       <c r="B105" t="s">
-        <v>421</v>
+        <v>318</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -11439,7 +11448,7 @@
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>422</v>
+        <v>492</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -11448,15 +11457,15 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>423</v>
+        <v>319</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>424</v>
+        <v>320</v>
       </c>
       <c r="B106" t="s">
-        <v>425</v>
+        <v>321</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -11465,7 +11474,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>426</v>
+        <v>493</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -11474,15 +11483,15 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>427</v>
+        <v>322</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>428</v>
+        <v>323</v>
       </c>
       <c r="B107" t="s">
-        <v>429</v>
+        <v>324</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -11491,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>430</v>
+        <v>494</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -11500,15 +11509,15 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>431</v>
+        <v>325</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>432</v>
+        <v>326</v>
       </c>
       <c r="B108" t="s">
-        <v>433</v>
+        <v>327</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -11517,7 +11526,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>434</v>
+        <v>495</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -11526,15 +11535,15 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>435</v>
+        <v>328</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>436</v>
+        <v>329</v>
       </c>
       <c r="B109" t="s">
-        <v>437</v>
+        <v>330</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -11543,7 +11552,7 @@
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -11552,15 +11561,15 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>439</v>
+        <v>331</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>440</v>
+        <v>332</v>
       </c>
       <c r="B110" t="s">
-        <v>441</v>
+        <v>333</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -11569,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -11578,15 +11587,15 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>443</v>
+        <v>334</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>444</v>
+        <v>335</v>
       </c>
       <c r="B111" t="s">
-        <v>445</v>
+        <v>336</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -11595,7 +11604,7 @@
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -11604,15 +11613,15 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>447</v>
+        <v>337</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>448</v>
+        <v>338</v>
       </c>
       <c r="B112" t="s">
-        <v>449</v>
+        <v>339</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -11621,7 +11630,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -11630,15 +11639,15 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>451</v>
+        <v>340</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>452</v>
+        <v>341</v>
       </c>
       <c r="B113" t="s">
-        <v>453</v>
+        <v>342</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -11647,7 +11656,7 @@
         <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>454</v>
+        <v>500</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -11656,15 +11665,15 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>455</v>
+        <v>343</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>456</v>
+        <v>344</v>
       </c>
       <c r="B114" t="s">
-        <v>457</v>
+        <v>345</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -11673,7 +11682,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>458</v>
+        <v>501</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -11682,15 +11691,15 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>459</v>
+        <v>346</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>460</v>
+        <v>347</v>
       </c>
       <c r="B115" t="s">
-        <v>461</v>
+        <v>348</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -11699,7 +11708,7 @@
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>462</v>
+        <v>502</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -11708,15 +11717,15 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>463</v>
+        <v>349</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>464</v>
+        <v>350</v>
       </c>
       <c r="B116" t="s">
-        <v>465</v>
+        <v>351</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -11725,7 +11734,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>466</v>
+        <v>503</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -11734,15 +11743,15 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>467</v>
+        <v>352</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>468</v>
+        <v>353</v>
       </c>
       <c r="B117" t="s">
-        <v>469</v>
+        <v>354</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -11751,7 +11760,7 @@
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>470</v>
+        <v>504</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -11760,15 +11769,15 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>471</v>
+        <v>355</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>472</v>
+        <v>356</v>
       </c>
       <c r="B118" t="s">
-        <v>473</v>
+        <v>357</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -11777,7 +11786,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>474</v>
+        <v>505</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -11786,15 +11795,15 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>475</v>
+        <v>358</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="B119" t="s">
-        <v>477</v>
+        <v>360</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -11803,7 +11812,7 @@
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>478</v>
+        <v>506</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -11812,15 +11821,15 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>479</v>
+        <v>361</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>480</v>
+        <v>362</v>
       </c>
       <c r="B120" t="s">
-        <v>481</v>
+        <v>363</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -11829,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -11838,15 +11847,15 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>483</v>
+        <v>364</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>484</v>
+        <v>365</v>
       </c>
       <c r="B121" t="s">
-        <v>485</v>
+        <v>366</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -11855,7 +11864,7 @@
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -11864,15 +11873,15 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>487</v>
+        <v>367</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>488</v>
+        <v>368</v>
       </c>
       <c r="B122" t="s">
-        <v>489</v>
+        <v>369</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -11881,7 +11890,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -11890,15 +11899,15 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>491</v>
+        <v>370</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>492</v>
+        <v>371</v>
       </c>
       <c r="B123" t="s">
-        <v>493</v>
+        <v>372</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -11907,7 +11916,7 @@
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -11916,15 +11925,15 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>495</v>
+        <v>373</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>496</v>
+        <v>374</v>
       </c>
       <c r="B124" t="s">
-        <v>497</v>
+        <v>375</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -11933,7 +11942,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -11942,15 +11951,15 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>499</v>
+        <v>376</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>500</v>
+        <v>377</v>
       </c>
       <c r="B125" t="s">
-        <v>501</v>
+        <v>378</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -11959,7 +11968,7 @@
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -11968,15 +11977,15 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>503</v>
+        <v>379</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>504</v>
+        <v>380</v>
       </c>
       <c r="B126" t="s">
-        <v>505</v>
+        <v>381</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -11985,7 +11994,7 @@
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -11994,15 +12003,15 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>507</v>
+        <v>382</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>508</v>
+        <v>383</v>
       </c>
       <c r="B127" t="s">
-        <v>509</v>
+        <v>384</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -12011,7 +12020,7 @@
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -12020,15 +12029,15 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>511</v>
+        <v>385</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>512</v>
+        <v>386</v>
       </c>
       <c r="B128" t="s">
-        <v>513</v>
+        <v>387</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -12037,7 +12046,7 @@
         <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -12046,10 +12055,11 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>515</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>